--- a/KUBOTA_API_Endpoints.xlsx
+++ b/KUBOTA_API_Endpoints.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1286"/>
+  <dimension ref="A1:K1286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -474,6 +474,31 @@
           <t>Controller</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Files Used</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Methods Used</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Database Used</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>DB Objects Used</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>DB Object Type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -564,6 +589,31 @@
           <t>FileUploadController</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\pcr\repository\WarrantyPcrPhotosRepo.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\domain\WarrantyPcrPhotos.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>pcrWarrantyClaim; warrantyPcrRepo.findByPcrNoAndId(); warrantyWcrRepo.getLabourCharge(); warrantyWcrRepo.getOutSideLabourCharge(); warrantyWcrRepo.getJobCardPartWarrantyInfo(); warrantyPcrRepo.getDealerDetails()</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>warrantyPcrRepo; warrantyWcrRepo</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1794,6 +1844,23 @@
           <t>ModelSurveyMasterController</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\crm\crmmodule\modelsurveymaster\controller\ModelSurveyMasterController.java</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>saveModelSurveyMaster</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3594,6 +3661,31 @@
           <t>EmployeeBankDetailsController</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\dealermaster\bankdetails\controller\EmployeeBankDetailsController.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerEmployeeMasterController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\masters\dealermaster\bankdetails\repository\EmployeeBankDetailsRepo.java</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>employeeBankDetailsRepo.getEmpIdByCode(); employeeBankDetailsRepo.save(); updateEmployeeBankDetails; userAuthentication.getLoginId(); employeeBankDetailsRepo.updateEmployeeBankDetailsById()</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>employeeBankDetailsRepo; userAuthentication</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3744,6 +3836,31 @@
           <t>CreateDealerUserController</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\dealermaster\createdealeruser\controller\CreateDealerUserController.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\user\repository\KubotaUserRepository.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\user\domain\LoginUser.java</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); userAuthentication.getLoginId(); saveDealer; kubotaUserRepository.save(); funcationRepo.save()</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>kubotaUserRepository; userAuthentication</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3864,6 +3981,31 @@
           <t>CreateDealerUserController</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\dealermaster\createdealeruser\controller\CreateDealerUserController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\masters\dealermaster\createdealeruser\domain\DealerRoleFunction.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\user\repository\KubotaUserRepository.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\user\domain\LoginUser.java; src\main\java\com\i4o\dms\kubota\masters\dealermaster\createdealeruser\repository\CreateDealerUserRepo.java</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>funcationRepo.findByLoginUserIdAndRoleId(); updateDealerUser; createDealerUserRepo.roleManueId(); userAuthentication.getLoginId(); kubotaUserRepository.getOne(); kubotaUserRepository.save(); funcationRepo.save()</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>kubotaUserRepository; userAuthentication; createDealerUserRepo</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7344,6 +7486,31 @@
           <t>SparesMtDocumentTypeController</t>
         </is>
       </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\spares\dbentities\repository\SparesMtDocumentTypeRepo.java; src\main\java\com\i4o\dms\kubota\masters\spares\dbentities\controller\SparesMtDocumentTypeController.java</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>sparesMtDocumentTypeRepo.getReferenceDocumentTypes(); getDocumentTypeForDropdown</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>sparesMtDocumentTypeRepo</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7374,6 +7541,31 @@
           <t>SparesMtDocumentTypeController</t>
         </is>
       </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\spares\dbentities\repository\SparesMtDocumentTypeRepo.java; src\main\java\com\i4o\dms\kubota\masters\spares\dbentities\controller\SparesMtDocumentTypeController.java</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>sparesMtDocumentTypeRepo.getSpareSalesTypeTypes(); getSalesTypeDropdown</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>sparesMtDocumentTypeRepo</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7404,6 +7596,31 @@
           <t>SparesPartMasterController</t>
         </is>
       </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\spares\sparepartmaster\controller\SparesPartMasterController.java; src\main\java\com\i4o\dms\kubota\masters\spares\sparepartmaster\repository\SparesPartMasterRepo.java; src\main\java\com\i4o\dms\kubota\spares\inventorymanagement\branchtransfer\branchtransferissue\dto\SparePartMasterDto.java</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>sparesPartMasterRepo.getSparePartItemDetailsForMrc(); getSparePartItemDetailsForMrc</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>sparesPartMasterRepo</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -7434,6 +7651,31 @@
           <t>SparesPartMasterController</t>
         </is>
       </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\spares\sparepartmaster\controller\SparesPartMasterController.java; src\main\java\com\i4o\dms\kubota\masters\spares\sparepartmaster\repository\SparesPartMasterRepo.java; src\main\java\com\i4o\dms\kubota\spares\inventorymanagement\branchtransfer\branchtransferissue\dto\SparePartMasterDto.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); autoCompletePartNumber; sparesPartMasterRepo.autoCompleteSparePartNumber()</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>sparesPartMasterRepo; userAuthentication</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -7464,6 +7706,31 @@
           <t>SparesPartMasterController</t>
         </is>
       </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\spares\sparepartmaster\controller\SparesPartMasterController.java; src\main\java\com\i4o\dms\kubota\masters\spares\sparepartmaster\repository\SparesPartMasterRepo.java; src\main\java\com\i4o\dms\kubota\spares\inventorymanagement\branchtransfer\branchtransferissue\dto\SparePartMasterDto.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>sparesPartMasterRepo.getSparePartDetailsForQuotation(); getSparePartDetailsForQuotation; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>sparesPartMasterRepo; userAuthentication</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -7614,6 +7881,31 @@
           <t>AssignUserToBranchController</t>
         </is>
       </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\AssignUserToBranchRepo.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\domain\AssignUserToBranchMaster.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\AssignUserToBranchController.java</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>submitBranchToUser; assignUserToBranchRepo.save(); assignUserToBranchRepo.tofindDuplicateDealerEmployeeIdForAutb()</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>assignUserToBranchRepo</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -7704,6 +7996,31 @@
           <t>AssignUserToBranchController</t>
         </is>
       </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\AssignUserToBranchRepo.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\domain\AssignUserToBranchMaster.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\AssignUserToBranchController.java</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>assignUserToBranchRepo.getOne(); assignUserToBranchRepo.save(); updateUserBranchAssignment</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>assignUserToBranchRepo</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -8064,6 +8381,31 @@
           <t>DealerDepartmentMasterController</t>
         </is>
       </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerDepartmentMasterController.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerDepartmentRepo.java</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>dealerDepartmentRepo.getOne(); dealerDepartmentRepo.save(); changeActiveStatus</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>dealerDepartmentRepo</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -8094,6 +8436,31 @@
           <t>DealerDepartmentMasterController</t>
         </is>
       </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerDepartmentMasterController.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerDepartmentRepo.java</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>dealerDepartmentRepo.toCheckDepartmentCode()</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>dealerDepartmentRepo</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -8124,6 +8491,31 @@
           <t>DealerDepartmentMasterController</t>
         </is>
       </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerDepartmentMasterController.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerDepartmentRepo.java</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>dealerDepartmentRepo.toCheckDepartmentName()</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>dealerDepartmentRepo</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -8154,6 +8546,31 @@
           <t>DealerDepartmentMasterController</t>
         </is>
       </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerDepartmentMasterController.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerDepartmentRepo.java</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>dealerDepartmentRepo.viewDepartmentDetails()</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>dealerDepartmentRepo</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -8184,6 +8601,31 @@
           <t>DealerDepartmentMasterController</t>
         </is>
       </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerDepartmentMasterController.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerDepartmentRepo.java</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>dealerDepartmentRepo.updateDepartmentDetails()</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>dealerDepartmentRepo</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -8304,6 +8746,31 @@
           <t>DealerDesignationMasterController</t>
         </is>
       </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerDesignationMasterController.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerDesignationRepo.java</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>dealerDesignationRepo.save(); dealerDesignationRepo.getOne(); changeActiveStatus</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>dealerDesignationRepo</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -8334,6 +8801,31 @@
           <t>DealerDesignationMasterController</t>
         </is>
       </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerDesignationMasterController.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerDesignationRepo.java</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>searchDealerDesignation; dealerDesignationRepo.searchDealerDesignation(); dealerDesignationRepo.searchDealerDesignationCount()</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>dealerDesignationRepo</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -8364,6 +8856,31 @@
           <t>DealerDesignationMasterController</t>
         </is>
       </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerDesignationMasterController.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerDesignationRepo.java</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>dealerDesignationRepo.getDesignationForDealer()</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>dealerDesignationRepo</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -8394,6 +8911,31 @@
           <t>DealerDesignationMasterController</t>
         </is>
       </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerDesignationMasterController.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerDesignationRepo.java</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>dealerDesignationRepo.toCheckDesignationCode()</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>dealerDesignationRepo</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -8424,6 +8966,31 @@
           <t>DealerDesignationMasterController</t>
         </is>
       </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerDesignationMasterController.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerDesignationRepo.java</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>dealerDesignationRepo.toCheckDesignationName()</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>dealerDesignationRepo</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -8454,6 +9021,31 @@
           <t>DealerDesignationMasterController</t>
         </is>
       </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerDesignationMasterController.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerDesignationRepo.java</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>dealerDesignationRepo.viewDeptForDesignationDetails(); dealerDesignationRepo.viewDesignationDetails()</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>dealerDesignationRepo</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -8484,6 +9076,31 @@
           <t>DealerDesignationMasterController</t>
         </is>
       </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerDesignationMasterController.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerDesignationRepo.java</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>dealerDesignationRepo.updateDesignationDetails()</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>dealerDesignationRepo</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -8574,6 +9191,31 @@
           <t>DealerEmployeeMasterController</t>
         </is>
       </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerEmployeeMasterRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerEmployeeMasterController.java</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>dealerEmployeeMasterRepo.save(); userAuthentication.getUsername(); userAuthentication.getLoginId(); dealerEmployeeMasterRepo.createUserForEmployee(); saveDealer</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>dealerEmployeeMasterRepo; userAuthentication</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -9114,6 +9756,31 @@
           <t>DealerEmployeeMasterController</t>
         </is>
       </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerEmployeeMasterRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerEmployeeMasterController.java</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>updateEmployeeMaster; dealerEmployeeMasterRepo.getOne(); dealerEmployeeMasterRepo.save(); userAuthentication.getLoginId()</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>dealerEmployeeMasterRepo; userAuthentication</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -9144,6 +9811,31 @@
           <t>DealerEmployeeMasterController</t>
         </is>
       </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerEmployeeMasterController.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerEmployeeMasterRepo.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>validateMobileNo; dealerEmployeeMasterRepo.validateMobileNo()</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>dealerEmployeeMasterRepo</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -9174,6 +9866,31 @@
           <t>DealerMasterController</t>
         </is>
       </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerMasterController.java; src\main\java\com\i4o\dms\kubota\accpac\repository\AccPacDealerMasterRepository.java; src\main\java\com\i4o\dms\kubota\accpac\domain\AccPacDealerMaster.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>dealerMasterRepo.save(); saveDealerMaster; storageService.store()</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>dealerMasterRepo; storageService</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -9474,6 +10191,31 @@
           <t>DealerMasterController</t>
         </is>
       </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerMasterController.java; src\main\java\com\i4o\dms\kubota\accpac\repository\AccPacDealerMasterRepository.java; src\main\java\com\i4o\dms\kubota\accpac\domain\AccPacDealerMaster.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>dealerMasterRepo.searchDealerMasterCount(); dealerMasterRepo.searchDealerMaster()</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>dealerMasterRepo</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -20094,6 +20836,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>userAuthentication.getBranchId(); addDeliveryChallan; userAuthentication.getLoginId(); deliveryChallanService.saveDc()</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanService</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -20124,6 +20891,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy.getDcTypeList(); getDcType</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -20154,6 +20946,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\InsuranceCompanyMasterRepository.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>getInsuranceCodeAutoComplete; insuranceCompanyMasterRepository.getCompanyCodeAutoComplete()</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>insuranceCompanyMasterRepository</t>
+        </is>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -20184,6 +21001,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>getEnquiryNumberAutoComplete; deliveryChallanRepositroy.getEnquiryNumberAutoComplete(); userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -20214,6 +21056,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\InsuranceCompanyMasterRepository.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>insuranceCompanyMasterRepository.findByCompanyCode(); getInsuranceDetailsByCode</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>insuranceCompanyMasterRepository</t>
+        </is>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -20244,6 +21111,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy.getDcCancellationTypeList(); getDcCancellationType</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -20274,6 +21166,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy.getDcCancellationReasonList(); getDcCancellationReason</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -20304,6 +21221,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy.getDcCancellationOtherReasonList(); getDcCancellationOtherReason</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -20334,6 +21276,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy.getDeliverableChecklist(); deliveryChallanRepositroy.getEnquiryProspectDetails(); deliveryChallanRepositroy.machineDetails(); getMachineDetailsByEnquiryNumber; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -20364,6 +21331,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\SalesDcApprovalRepository.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\domain\SalesDcApproval.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>salesDcApprovalRepository.getApprovalHierDetails(); userAuthentication.getUsername(); deliveryChallanRepositroy.findByDeliveryChallanId(); getDcById</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>userAuthentication; salesDcApprovalRepository; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -20394,6 +21386,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy.getOne(); getDcByeId</t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -20424,6 +21441,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>userAuthentication.getBranchId(); deliveryChallanRepositroy.getItemDetailsByItemNumber(); getItemDetailsByItemNumber</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -20454,6 +21496,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); getDeliveryChallanAutoComplete; deliveryChallanRepositroy.getDeleiveryChallanNumberAutocomplete()</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -20484,6 +21551,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); deliveryChallanRepositroy.getDcChassiNumberAutocomplete(); getDcChassisNumberAutoComplete</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -20514,6 +21606,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); deliveryChallanRepositroy.getDcCustomerNameAutoComplete(); getDcCustomerNameAutoComplete</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -20544,6 +21661,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy.getDcCustomerMobileNumberAutoComplete(); getDcCustomerMobileNumberAutoComplete; userAuthentication.getUsername()</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -20574,6 +21716,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy.getDcEnquiryNumberAutoComplete(); getDcEnquiryNumberAutoComplete; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -20604,6 +21771,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy.getDcStatus(); getDcStatusDropDown</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -20634,6 +21826,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); getDcEngineNumberAutoComplete; deliveryChallanRepositroy.getDcEngineNumberAutoComplete()</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
@@ -20664,6 +21881,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\SalesDcApprovalRepository.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\domain\SalesDcApproval.java</t>
+        </is>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); getDCListForApproval; salesDcApprovalRepository.getDCListForApproval()</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>userAuthentication; salesDcApprovalRepository</t>
+        </is>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -20694,6 +21936,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); userAuthentication.getDealerEmployeeId(); userAuthentication.getUsername(); getDcSearch; deliveryChallanRepositroy.searchDc(); userAuthentication.getManagementAccess(); userAuthentication.getKubotaEmployeeId()</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -20724,6 +21991,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>getDcRequestNumberAutoComplete; deliveryChallanRepositroy.getDcRequestNumberAutoComplete(); userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -20754,6 +22046,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy.getAllotmentDetailsByRequestNumber(); deliveryChallanRepositroy.getDealerDetailsByRequestNumber(); deliveryChallanRepositroy.getMachineDetailsByRequestNumber(); getMachineAndDealerDetailsByRequestNumber; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -20784,6 +22101,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>deliveryChallanService.cancelDc(); dcCancel</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>deliveryChallanService</t>
+        </is>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -20844,6 +22186,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy.getItemNumberAutoComplete(); getItemNumberAutoComplete</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -20874,6 +22241,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>deliveryChallanRepositroy.allotmentAutocomplete(); allotmentNumberAutoComplete; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -20904,6 +22296,31 @@
           <t>DeliveryChallanController</t>
         </is>
       </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\service\DeliveryChallanService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\controller\DeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\warranty\deliverychallan\controller\WarrantyDeliveryChallanController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\deliverychallan\repository\DeliveryChallanRepositroy.java</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>userAuthentication.getBranchId(); deliveryChallanRepositroy.allotmentMachineDetails(); allotmentNumberAutoComplete; deliveryChallanRepositroy.allotmentCustomerDetails()</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>userAuthentication; deliveryChallanRepositroy</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
@@ -21054,6 +22471,31 @@
           <t>InvoiceController</t>
         </is>
       </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\domain\SalesInvoice.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\controller\InvoiceController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\service\SalesInvoiceService.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\repository\InvoiceRepository.java</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>invoiceRepository.getBankName(); getBankName</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>invoiceRepository</t>
+        </is>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
@@ -21084,6 +22526,31 @@
           <t>InvoiceController</t>
         </is>
       </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\domain\SalesInvoice.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\controller\InvoiceController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\service\SalesInvoiceService.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\repository\InvoiceRepository.java</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>invoiceRepository.getInvoiceType(); getInvoiceType</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>invoiceRepository</t>
+        </is>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
@@ -21114,6 +22581,31 @@
           <t>InvoiceController</t>
         </is>
       </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\domain\SalesInvoice.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\controller\InvoiceController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\service\SalesInvoiceService.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\repository\InvoiceRepository.java</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>getInvoiceStatus; invoiceRepository.getInvoiceStatus()</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>invoiceRepository</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
@@ -21144,6 +22636,31 @@
           <t>InvoiceController</t>
         </is>
       </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\domain\SalesInvoice.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\controller\InvoiceController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\service\SalesInvoiceService.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\repository\InvoiceRepository.java</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>getgstDropDown; invoiceRepository.getGstValue()</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>invoiceRepository</t>
+        </is>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
@@ -21174,6 +22691,31 @@
           <t>InvoiceController</t>
         </is>
       </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\controller\InvoiceController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\domain\SalesInvoice.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\service\SalesInvoiceService.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\repository\InvoiceRepository.java</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>getCustomerCodeAutoComplete; invoiceRepository.getCustomerCodeAutoComplete(); userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>userAuthentication; invoiceRepository</t>
+        </is>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
@@ -21204,6 +22746,31 @@
           <t>InvoiceController</t>
         </is>
       </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\controller\InvoiceController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\domain\SalesInvoice.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\service\SalesInvoiceService.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\repository\InvoiceRepository.java</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>invoiceRepository.getCustomerDetailsByCustomerCode(); invoiceRepository.getDcDetailsByCustomerCode(); getDcDetailsByCustomerCode; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>userAuthentication; invoiceRepository</t>
+        </is>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
@@ -21234,6 +22801,31 @@
           <t>InvoiceController</t>
         </is>
       </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\domain\SalesInvoice.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\controller\InvoiceController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\service\SalesInvoiceService.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\repository\InvoiceRepository.java</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>invoiceRepository.getMaterialDetailsByDcId(); getMaterialDetailsByDcId</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>invoiceRepository</t>
+        </is>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
@@ -21264,6 +22856,31 @@
           <t>InvoiceController</t>
         </is>
       </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\domain\SalesInvoice.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\controller\InvoiceController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\service\SalesInvoiceService.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\repository\InvoiceRepository.java</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>getInvoiceCancellationType; invoiceRepository.getInvoiceCancellationType()</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>invoiceRepository</t>
+        </is>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
@@ -21294,6 +22911,31 @@
           <t>InvoiceController</t>
         </is>
       </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\domain\SalesInvoice.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\controller\InvoiceController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\service\SalesInvoiceService.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\repository\InvoiceRepository.java</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>invoiceRepository.getInvoiceCancellationReason(); getInvoiceCancellationReason</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>invoiceRepository</t>
+        </is>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
@@ -21324,6 +22966,31 @@
           <t>InvoiceController</t>
         </is>
       </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\domain\SalesInvoice.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\controller\InvoiceController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\service\SalesInvoiceService.java; src\main\java\com\i4o\dms\kubota\salesandpresales\sales\invoice\repository\InvoiceRepository.java</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>invoiceRepository.getInvoiceCancellationOtherReason(); getInvoiceCancellationOtherReason</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>invoiceRepository</t>
+        </is>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -23244,6 +24911,31 @@
           <t>AccpacClaimApprovalController</t>
         </is>
       </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\accpac\claim\controller\AccpacClaimApprovalController.java; src\main\java\com\i4o\dms\kubota\salesandpresales\schemes\claim\repository\IncentiveSchemeClaimApprovalRepo.java; src\main\java\com\i4o\dms\kubota\salesandpresales\schemes\claim\domain\SchemeClaimApproval.java</t>
+        </is>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>getWarrantyClaimHierarchyById; approvalRepo.getApprovalHierarchyDetails()</t>
+        </is>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J760" t="inlineStr">
+        <is>
+          <t>approvalRepo</t>
+        </is>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
@@ -23274,6 +24966,31 @@
           <t>ServiceActivityClaimController</t>
         </is>
       </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\activityproposal\domain\ServiceActivityProposalHeads.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimRepo.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalSubActivityRepo.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\domain\ServiceActivityProposalApproval.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceActivityClaimController.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\domain\ServiceActivityProposalSubActivity.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\domain\ServiceActivityClaimApproval.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimPhotoRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\accpac\repository\AccPacDealerMasterRepository.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalHeadRepo.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\accpac\domain\AccPacDealerMaster.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalApprovalRepository.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalRepo.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimApprovalRepository.java</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>serviceActivityProposalRepo.findById(); userAuthentication.getDealerId(); dealerMasterRepo.getOne(); serviceActivityProposalHeadRepo.findById(); serviceActivityClaimApprovalRepository.saveAll(); storageService.store(); userAuthentication.getLoginId(); serviceActivityProposalSubActivityRepo.findById(); serviceActivityClaimRepo.save(); serviceActivityClaimApprovalRepository.getServiceActivityClaimApprovalHierarchyLevel(); saveServiceActivityReport</t>
+        </is>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J761" t="inlineStr">
+        <is>
+          <t>userAuthentication; serviceActivityProposalSubActivityRepo; serviceActivityProposalHeadRepo; dealerMasterRepo; serviceActivityClaimApprovalRepository; storageService; serviceActivityProposalRepo; serviceActivityClaimRepo</t>
+        </is>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
@@ -23394,6 +25111,31 @@
           <t>ServiceActivityClaimController</t>
         </is>
       </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimRepo.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalSubActivityRepo.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceActivityClaimController.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimPhotoRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalHeadRepo.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalRepo.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimApprovalRepository.java</t>
+        </is>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); serviceActivityClaimSearch; userAuthentication.getDealerEmployeeId(); userAuthentication.getUsername(); userAuthentication.getManagementAccess(); serviceActivityClaimRepo.searchActivityClaim(); userAuthentication.getKubotaEmployeeId()</t>
+        </is>
+      </c>
+      <c r="I765" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J765" t="inlineStr">
+        <is>
+          <t>userAuthentication; serviceActivityClaimRepo</t>
+        </is>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
@@ -23424,6 +25166,31 @@
           <t>ServiceActivityClaimController</t>
         </is>
       </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimRepo.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalSubActivityRepo.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceActivityClaimController.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\domain\ServiceActivityClaimApproval.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimPhotoRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalHeadRepo.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalRepo.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimApprovalRepository.java</t>
+        </is>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>serviceActivityClaimRepo.getHeaderDataForView(); serviceActivityClaimRepo.getHeadsDataForView(); userAuthentication.getDealerId(); serviceActivityClaimRepo.getViewReportPhoto(); userAuthentication.getUsername(); getActivityClaimById; serviceActivityClaimRepo.getSubActivitiesForView(); serviceActivityClaimApprovalRepository.getApprovalHierDetails()</t>
+        </is>
+      </c>
+      <c r="I766" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J766" t="inlineStr">
+        <is>
+          <t>userAuthentication; serviceActivityClaimRepo; serviceActivityClaimApprovalRepository</t>
+        </is>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
@@ -23604,6 +25371,31 @@
           <t>ServiceActivityClaimController</t>
         </is>
       </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimRepo.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalSubActivityRepo.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceActivityClaimController.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimPhotoRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalHeadRepo.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalRepo.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimApprovalRepository.java</t>
+        </is>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>serviceActivityClaimRepo.getClaimPendingForApproval(); getClaimPendingForApproval; userAuthentication.getUsername()</t>
+        </is>
+      </c>
+      <c r="I772" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J772" t="inlineStr">
+        <is>
+          <t>userAuthentication; serviceActivityClaimRepo</t>
+        </is>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
@@ -23634,6 +25426,31 @@
           <t>ServiceActivityClaimController</t>
         </is>
       </c>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimRepo.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalSubActivityRepo.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceActivityClaimController.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\domain\ServiceActivityProposalSubActivity.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimPhotoRepo.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalHeadRepo.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalRepo.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceActivityClaimApprovalRepository.java</t>
+        </is>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>editServiceActivityClaim; storageService.deleteExistingFile(); proposalSubActivityRepo.getOne(); activityProposalHeadsRepo.saveAll(); storageService.store(); proposalSubActivityRepo.saveAll(); activityProposalHeadsRepo.getOne()</t>
+        </is>
+      </c>
+      <c r="I773" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J773" t="inlineStr">
+        <is>
+          <t>proposalSubActivityRepo; storageService</t>
+        </is>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
@@ -23784,6 +25601,31 @@
           <t>ServiceClaimInvoiceController</t>
         </is>
       </c>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceActivityClaimController.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceClaimInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceClaimInvoiceController.java</t>
+        </is>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); userAuthentication.getLoginId(); serviceClaimInvoiceRepo.invoiceStatusUpdate(); invoiceVerification</t>
+        </is>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J778" t="inlineStr">
+        <is>
+          <t>userAuthentication; serviceClaimInvoiceRepo</t>
+        </is>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
@@ -23814,6 +25656,31 @@
           <t>ServiceClaimInvoiceController</t>
         </is>
       </c>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceActivityClaimController.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceClaimInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceClaimInvoiceController.java</t>
+        </is>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>invoiceDownload; storageService.loadAsResource(); serviceClaimInvoiceRepo.getInvoiceFileName()</t>
+        </is>
+      </c>
+      <c r="I779" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J779" t="inlineStr">
+        <is>
+          <t>serviceClaimInvoiceRepo; storageService</t>
+        </is>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
@@ -23844,6 +25711,31 @@
           <t>ServiceClaimInvoiceController</t>
         </is>
       </c>
+      <c r="G780" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceActivityClaimController.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceClaimInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceClaimInvoiceController.java</t>
+        </is>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>invoiceUpload; storageService.store(); userAuthentication.getLoginId(); serviceClaimInvoiceRepo.uploadInvoice(); serviceClaimInvoiceRepo.invoiceStatusUpdate()</t>
+        </is>
+      </c>
+      <c r="I780" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J780" t="inlineStr">
+        <is>
+          <t>userAuthentication; serviceClaimInvoiceRepo; storageService</t>
+        </is>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
@@ -23934,6 +25826,31 @@
           <t>ServiceClaimInvoiceController</t>
         </is>
       </c>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceActivityClaimController.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceClaimInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceClaimInvoiceController.java</t>
+        </is>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>dealerInvoiceUpload; serviceClaimInvoiceRepo.dealerUploadInvoice(); storageService.store(); userAuthentication.getLoginId(); serviceClaimInvoiceRepo.invoiceStatusUpdate()</t>
+        </is>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J783" t="inlineStr">
+        <is>
+          <t>userAuthentication; serviceClaimInvoiceRepo; storageService</t>
+        </is>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
@@ -23964,6 +25881,31 @@
           <t>ServiceClaimInvoiceController</t>
         </is>
       </c>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceActivityClaimController.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceClaimInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceClaimInvoiceController.java</t>
+        </is>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>serviceClaimInvoiceRepo.kaiUpdateInvoiceNoDate(); kaiInvoiceVerify; serviceClaimInvoiceRepo.invoiceStatusUpdate(); userAuthentication.getLoginId()</t>
+        </is>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J784" t="inlineStr">
+        <is>
+          <t>userAuthentication; serviceClaimInvoiceRepo</t>
+        </is>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
@@ -23994,6 +25936,31 @@
           <t>ServiceClaimInvoiceController</t>
         </is>
       </c>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceActivityClaimController.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\repository\ServiceClaimInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\activityclaim\controller\ServiceClaimInvoiceController.java</t>
+        </is>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>getInvoiceDetail; serviceClaimInvoiceRepo.getInvoiceDetail()</t>
+        </is>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J785" t="inlineStr">
+        <is>
+          <t>serviceClaimInvoiceRepo</t>
+        </is>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
@@ -24084,6 +26051,31 @@
           <t>ServiceActivityProposalController</t>
         </is>
       </c>
+      <c r="G788" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\controller\ServiceActivityProposalController.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalApprovalRepository.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalRepo.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\domain\ServiceActivityProposalApproval.java</t>
+        </is>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); userAuthentication.getDealerEmployeeId(); userAuthentication.getUsername(); serviceActivityProposalRepo.searchServiceActivityProposal(); userAuthentication.getManagementAccess(); userAuthentication.getKubotaEmployeeId()</t>
+        </is>
+      </c>
+      <c r="I788" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J788" t="inlineStr">
+        <is>
+          <t>userAuthentication; serviceActivityProposalRepo</t>
+        </is>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
@@ -24144,6 +26136,31 @@
           <t>ServiceActivityProposalController</t>
         </is>
       </c>
+      <c r="G790" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\activityproposal\domain\ServiceActivityProposalApproval.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalRepo.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\controller\ServiceActivityProposalController.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalApprovalRepository.java</t>
+        </is>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>getServiceActivityProposalById; serviceActivityProposalRepo.getLastKaiRemark(); serviceActivityProposalRepo.findByActivityNumber()</t>
+        </is>
+      </c>
+      <c r="I790" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J790" t="inlineStr">
+        <is>
+          <t>serviceActivityProposalRepo</t>
+        </is>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
@@ -24264,6 +26281,31 @@
           <t>ServiceActivityProposalController</t>
         </is>
       </c>
+      <c r="G794" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\controller\ServiceActivityProposalController.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalApprovalRepository.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\repository\ServiceActivityProposalRepo.java; src\main\java\com\i4o\dms\kubota\service\activityproposal\domain\ServiceActivityProposalApproval.java</t>
+        </is>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>getProposalPendingForApproval; userAuthentication.getUsername(); serviceActivityProposalRepo.getProposalPendingForApproval()</t>
+        </is>
+      </c>
+      <c r="I794" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J794" t="inlineStr">
+        <is>
+          <t>userAuthentication; serviceActivityProposalRepo</t>
+        </is>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
@@ -24504,6 +26546,31 @@
           <t>ServiceActivityReportController</t>
         </is>
       </c>
+      <c r="G802" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\common\service\JasperPrintService.java; src\main\java\com\i4o\dms\kubota\service\activityreport\controller\ServiceActivityReportController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\activityreport\repository\ServiceActivityReportPhotoRepo.java; src\main\java\com\i4o\dms\kubota\service\activityreport\repository\ServiceActivityReportRepo.java</t>
+        </is>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); userAuthentication.getDealerEmployeeId(); userAuthentication.getUsername(); userAuthentication.getManagementAccess(); serviceActivityReportRepo.searchActivityReport(); userAuthentication.getKubotaEmployeeId()</t>
+        </is>
+      </c>
+      <c r="I802" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J802" t="inlineStr">
+        <is>
+          <t>userAuthentication; serviceActivityReportRepo</t>
+        </is>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
@@ -24534,6 +26601,31 @@
           <t>ServiceActivityReportController</t>
         </is>
       </c>
+      <c r="G803" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\common\service\JasperPrintService.java; src\main\java\com\i4o\dms\kubota\service\activityreport\controller\ServiceActivityReportController.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\activityreport\repository\ServiceActivityReportPhotoRepo.java; src\main\java\com\i4o\dms\kubota\service\activityreport\repository\ServiceActivityReportRepo.java</t>
+        </is>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>serviceActivityReportRepo.getServiceDataForView(); serviceActivityReportRepo.getHeaderDataForView(); serviceActivityReportRepo.getPhotoForView(); getServiceMrcById; serviceActivityReportRepo.getJobCardDataForView(); serviceActivityReportRepo.getMachineDataForView()</t>
+        </is>
+      </c>
+      <c r="I803" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J803" t="inlineStr">
+        <is>
+          <t>serviceActivityReportRepo</t>
+        </is>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
@@ -24864,6 +26956,31 @@
           <t>ServiceClaimController</t>
         </is>
       </c>
+      <c r="G814" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\claim\controller\ServiceClaimController.java; src\main\java\com\i4o\dms\kubota\service\claim\repo\ServiceClaimRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\claim\repo\ServiceClaimApprovalRepo.java; src\main\java\com\i4o\dms\kubota\salesandpresales\reports\MarketingClaimReportController.java</t>
+        </is>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); getClaimPendingsForApproval; claimRepor.getClaimPendingsForApproval()</t>
+        </is>
+      </c>
+      <c r="I814" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J814" t="inlineStr">
+        <is>
+          <t>userAuthentication; claimRepor</t>
+        </is>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
@@ -24894,6 +27011,31 @@
           <t>ServiceJobCardController</t>
         </is>
       </c>
+      <c r="G815" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\jobcard\repository\ServiceJobCardRepo.java; src\main\java\com\i4o\dms\kubota\service\jobcard\servicejobcardimpl\ServiceJobcardService.java; src\main\java\com\i4o\dms\kubota\service\servicebooking\repository\ServiceBookingRepo.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\service\jobcard\controller\ServiceJobCardController.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\jobcard\repository\ServiceJobCardReopenApprovalRepo.java</t>
+        </is>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>serviceJobcardService.saveJobCard(); saveJobcard</t>
+        </is>
+      </c>
+      <c r="I815" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J815" t="inlineStr">
+        <is>
+          <t>serviceJobcardService</t>
+        </is>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
@@ -24924,6 +27066,31 @@
           <t>ServiceJobCardController</t>
         </is>
       </c>
+      <c r="G816" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\jobcard\repository\ServiceJobCardRepo.java; src\main\java\com\i4o\dms\kubota\service\jobcard\servicejobcardimpl\ServiceJobcardService.java; src\main\java\com\i4o\dms\kubota\service\servicebooking\repository\ServiceBookingRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\service\jobcard\controller\ServiceJobCardController.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\jobcard\domain\ServiceJobCardReopenApproval.java; src\main\java\com\i4o\dms\kubota\service\jobcard\repository\ServiceJobCardReopenApprovalRepo.java</t>
+        </is>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>serviceJobCardRepo.cancelJobCard(); cancelJobcard; userAuthentication.getLoginId()</t>
+        </is>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J816" t="inlineStr">
+        <is>
+          <t>userAuthentication; serviceJobCardRepo</t>
+        </is>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
@@ -24954,6 +27121,31 @@
           <t>ServiceJobCardController</t>
         </is>
       </c>
+      <c r="G817" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\jobcard\repository\ServiceJobCardRepo.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerEmployeeMasterRepo.java; src\main\java\com\i4o\dms\kubota\service\jobcard\servicejobcardimpl\ServiceJobcardService.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerEmployeeMasterController.java; src\main\java\com\i4o\dms\kubota\service\servicebooking\repository\ServiceBookingRepo.java; src\main\java\com\i4o\dms\kubota\accpac\repository\AccPacDealerMasterRepository.java; src\main\java\com\i4o\dms\kubota\accpac\domain\AccPacDealerMaster.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\service\jobcard\controller\ServiceJobCardController.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\jobcard\domain\ServiceJobCardReopenApproval.java; src\main\java\com\i4o\dms\kubota\service\jobcard\repository\ServiceJobCardReopenApprovalRepo.java; src\main\java\com\i4o\dms\kubota\spares\partrequisition\domain\SparePartRequisitionItem.java; src\main\java\com\i4o\dms\kubota\spares\partrequisition\repository\SparePartRequisitionItemRepo.java</t>
+        </is>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>serviceJobCardRepo.save(); dealerEmployeeMasterRepo.getOne(); dealerMasterRepo.getOne(); saveJobcardTest; sparePartRequisitionRepo.findByServiceJobCard()</t>
+        </is>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J817" t="inlineStr">
+        <is>
+          <t>sparePartRequisitionRepo; dealerEmployeeMasterRepo; serviceJobCardRepo; dealerMasterRepo</t>
+        </is>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
@@ -25704,6 +27896,31 @@
           <t>ServiceJobCardController</t>
         </is>
       </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\jobcard\repository\ServiceJobCardRepo.java; src\main\java\com\i4o\dms\kubota\service\jobcard\servicejobcardimpl\ServiceJobcardService.java; src\main\java\com\i4o\dms\kubota\service\servicebooking\repository\ServiceBookingRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\service\jobcard\controller\ServiceJobCardController.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\jobcard\domain\ServiceJobCardReopenApproval.java; src\main\java\com\i4o\dms\kubota\service\jobcard\repository\ServiceJobCardReopenApprovalRepo.java; src\main\java\com\i4o\dms\kubota\spares\partrequisition\domain\SparePartRequisitionItem.java; src\main\java\com\i4o\dms\kubota\spares\partrequisition\repository\SparePartRequisitionItemRepo.java</t>
+        </is>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>serviceJobCardRepo.save(); sparePartRequisitionRepo.findByServiceJobCard(); UpdateJobcard; storageService.store(); userAuthentication.getLoginId(); serviceJobCardRepo.deletePhoto(); serviceJobCardRepo.getOne()</t>
+        </is>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J842" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparePartRequisitionItemRepo; sparePartRequisitionRepo; serviceJobCardRepo; storageService</t>
+        </is>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
@@ -25944,6 +28161,31 @@
           <t>ServiceJobCardController</t>
         </is>
       </c>
+      <c r="G850" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\jobcard\repository\ServiceJobCardRepo.java; src\main\java\com\i4o\dms\kubota\service\jobcard\servicejobcardimpl\ServiceJobcardService.java; src\main\java\com\i4o\dms\kubota\service\servicebooking\repository\ServiceBookingRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\service\jobcard\controller\ServiceJobCardController.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\jobcard\domain\ServiceJobCardReopenApproval.java; src\main\java\com\i4o\dms\kubota\service\jobcard\repository\ServiceJobCardReopenApprovalRepo.java</t>
+        </is>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); machineServiceHistory; serviceJobCardRepo.getMachineServiceHistory()</t>
+        </is>
+      </c>
+      <c r="I850" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J850" t="inlineStr">
+        <is>
+          <t>userAuthentication; serviceJobCardRepo</t>
+        </is>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
@@ -26694,6 +28936,31 @@
           <t>Unknown</t>
         </is>
       </c>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\mrc\service\ServiceMrcService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\mrc\controller\ServiceMrcController.java</t>
+        </is>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>saveServiceMrc; serviceMrcService.saveServiceMrc(); userAuthentication.getLoginId()</t>
+        </is>
+      </c>
+      <c r="I875" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J875" t="inlineStr">
+        <is>
+          <t>userAuthentication; serviceMrcService</t>
+        </is>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
@@ -26724,6 +28991,31 @@
           <t>Unknown</t>
         </is>
       </c>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\mrc\service\ServiceMrcService.java; src\main\java\com\i4o\dms\kubota\service\mrc\repository\MrcRepository.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\mrc\controller\ServiceMrcController.java</t>
+        </is>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); userAuthentication.getDealerEmployeeId(); userAuthentication.getUsername(); userAuthentication.getManagementAccess(); mrcRepository.searchServiceMrc(); userAuthentication.getKubotaEmployeeId()</t>
+        </is>
+      </c>
+      <c r="I876" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J876" t="inlineStr">
+        <is>
+          <t>userAuthentication; mrcRepository</t>
+        </is>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
@@ -26754,6 +29046,31 @@
           <t>Unknown</t>
         </is>
       </c>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\mrc\service\ServiceMrcService.java; src\main\java\com\i4o\dms\kubota\service\mrc\repository\MrcRepository.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\mrc\controller\ServiceMrcController.java</t>
+        </is>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); mrcRepository.machineFormFSearch(); getServiceMrcById</t>
+        </is>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J877" t="inlineStr">
+        <is>
+          <t>userAuthentication; mrcRepository</t>
+        </is>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
@@ -26784,6 +29101,31 @@
           <t>Unknown</t>
         </is>
       </c>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\mrc\service\ServiceMrcService.java; src\main\java\com\i4o\dms\kubota\service\mrc\repository\MrcRepository.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\service\mrc\controller\ServiceMrcController.java</t>
+        </is>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); mrcRepository.getMrcDiscrepancyList(); getServiceMrcById; mrcRepository.getMrcCheckpointListByMrcId(); mrcRepository.getMrcPhotoList(); mrcRepository.getMrcHeaderData()</t>
+        </is>
+      </c>
+      <c r="I878" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J878" t="inlineStr">
+        <is>
+          <t>userAuthentication; mrcRepository</t>
+        </is>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
@@ -26844,6 +29186,31 @@
           <t>PdcController</t>
         </is>
       </c>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerEmployeeMasterRepo.java; src\main\java\com\i4o\dms\kubota\service\pdc\domain\ServicePdcChassisCheckpointInfo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\pdc\repository\ServiceCheckpointPdcRepo.java; src\main\java\com\i4o\dms\kubota\service\pdc\repository\PdcRepository.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerEmployeeMasterController.java; src\main\java\com\i4o\dms\kubota\service\pdc\controller\PdcController.java; src\main\java\com\i4o\dms\kubota\service\pdc\domain\ServicePdc.java</t>
+        </is>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>serviceCheckpointPdcRepo.save(); userAuthentication.getDealerId(); dealerEmployeeMasterRepo.getOne(); userAuthentication.getDealerEmployeeId(); pdcRepository.save(); userAuthentication.getLoginId(); pdcRepository.isPdcCreated(); savePdc; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I880" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J880" t="inlineStr">
+        <is>
+          <t>dealerEmployeeMasterRepo; pdcRepository; userAuthentication; serviceCheckpointPdcRepo</t>
+        </is>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
@@ -26874,6 +29241,31 @@
           <t>PdcController</t>
         </is>
       </c>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\pdc\repository\ServiceCheckpointPdcRepo.java; src\main\java\com\i4o\dms\kubota\service\pdc\repository\PdcRepository.java; src\main\java\com\i4o\dms\kubota\service\pdc\controller\PdcController.java; src\main\java\com\i4o\dms\kubota\service\pdc\domain\ServicePdc.java</t>
+        </is>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>userAuthentication.getBranchId(); pdcRepository.getChassisNumberAutoComplete(); autoCompleteChassisNumber</t>
+        </is>
+      </c>
+      <c r="I881" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J881" t="inlineStr">
+        <is>
+          <t>pdcRepository; userAuthentication</t>
+        </is>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
@@ -26904,6 +29296,31 @@
           <t>PdcController</t>
         </is>
       </c>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\pdc\repository\ServiceCheckpointPdcRepo.java; src\main\java\com\i4o\dms\kubota\service\pdc\repository\PdcRepository.java; src\main\java\com\i4o\dms\kubota\service\pdc\controller\PdcController.java; src\main\java\com\i4o\dms\kubota\service\pdc\domain\ServicePdc.java</t>
+        </is>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>userAuthentication.getBranchId(); pdcRepository.getChassisDetailsByChassisNo(); getChassisDetailsByChassisNo</t>
+        </is>
+      </c>
+      <c r="I882" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J882" t="inlineStr">
+        <is>
+          <t>pdcRepository; userAuthentication</t>
+        </is>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
@@ -26934,6 +29351,31 @@
           <t>PdcController</t>
         </is>
       </c>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\pdc\repository\PdcRepository.java; src\main\java\com\i4o\dms\kubota\service\pdc\repository\ServiceCheckpointPdcRepo.java; src\main\java\com\i4o\dms\kubota\service\pdc\controller\PdcController.java; src\main\java\com\i4o\dms\kubota\service\pdc\domain\ServicePdc.java</t>
+        </is>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>pdcRepository.getAggregateAndCheckPointByModel(); getAggregateAndCheckPointByModel</t>
+        </is>
+      </c>
+      <c r="I883" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J883" t="inlineStr">
+        <is>
+          <t>pdcRepository</t>
+        </is>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
@@ -26964,6 +29406,31 @@
           <t>PdcController</t>
         </is>
       </c>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\pdc\repository\ServiceCheckpointPdcRepo.java; src\main\java\com\i4o\dms\kubota\service\pdc\repository\PdcRepository.java; src\main\java\com\i4o\dms\kubota\service\pdc\controller\PdcController.java; src\main\java\com\i4o\dms\kubota\service\pdc\domain\ServicePdc.java</t>
+        </is>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); searchPdc; userAuthentication.getDealerEmployeeId(); pdcRepository.pdcSearch(); userAuthentication.getUsername(); userAuthentication.getManagementAccess(); userAuthentication.getKubotaEmployeeId()</t>
+        </is>
+      </c>
+      <c r="I884" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J884" t="inlineStr">
+        <is>
+          <t>pdcRepository; userAuthentication</t>
+        </is>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
@@ -26994,6 +29461,31 @@
           <t>PdcController</t>
         </is>
       </c>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\pdc\repository\PdcRepository.java; src\main\java\com\i4o\dms\kubota\service\pdc\repository\ServiceCheckpointPdcRepo.java; src\main\java\com\i4o\dms\kubota\service\pdc\controller\PdcController.java; src\main\java\com\i4o\dms\kubota\service\pdc\domain\ServicePdc.java</t>
+        </is>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>pdcRepository.getAggregateCheckpointListByPdcId(); pdcRepository.getViewHeader(); getPdcById</t>
+        </is>
+      </c>
+      <c r="I885" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J885" t="inlineStr">
+        <is>
+          <t>pdcRepository</t>
+        </is>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
@@ -27024,6 +29516,31 @@
           <t>PdcController</t>
         </is>
       </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\pdc\repository\ServiceCheckpointPdcRepo.java; src\main\java\com\i4o\dms\kubota\service\pdc\repository\PdcRepository.java; src\main\java\com\i4o\dms\kubota\service\pdc\controller\PdcController.java; src\main\java\com\i4o\dms\kubota\service\pdc\domain\ServicePdc.java</t>
+        </is>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>pdcCreateAutoCompleteChassisNo; pdcRepository.pdcCreateAutoCompleteChassisNo(); userAuthentication.getUsername()</t>
+        </is>
+      </c>
+      <c r="I886" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J886" t="inlineStr">
+        <is>
+          <t>pdcRepository; userAuthentication</t>
+        </is>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
@@ -27054,6 +29571,23 @@
           <t>PdiController</t>
         </is>
       </c>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\pdi\controller\PdiController.java; src\main\java\com\i4o\dms\kubota\service\pdi\service\ServicePdiImpl.java</t>
+        </is>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>getAutoCompleteChassisNo</t>
+        </is>
+      </c>
+      <c r="I887" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
     </row>
     <row r="888">
       <c r="A888" t="n">
@@ -27084,6 +29618,23 @@
           <t>PdiController</t>
         </is>
       </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\pdi\controller\PdiController.java; src\main\java\com\i4o\dms\kubota\service\pdi\service\ServicePdiImpl.java</t>
+        </is>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>getGrnDetailsByChassisNo</t>
+        </is>
+      </c>
+      <c r="I888" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
     </row>
     <row r="889">
       <c r="A889" t="n">
@@ -27114,6 +29665,31 @@
           <t>PdiController</t>
         </is>
       </c>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\pdi\controller\PdiController.java; src\main\java\com\i4o\dms\kubota\service\pdi\service\ServicePdiImpl.java</t>
+        </is>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>savePdi; servicePdiImpl.savePdi()</t>
+        </is>
+      </c>
+      <c r="I889" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J889" t="inlineStr">
+        <is>
+          <t>servicePdiImpl</t>
+        </is>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
@@ -27144,6 +29720,31 @@
           <t>PdiController</t>
         </is>
       </c>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\pdi\domain\ServicePdi.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\pdi\service\ServicePdiImpl.java; src\main\java\com\i4o\dms\kubota\service\pdi\controller\PdiController.java; src\main\java\com\i4o\dms\kubota\service\pdi\repository\PdiRepository.java</t>
+        </is>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>pdiRepository.searchAutocompleteChassisNumber(); userAuthentication.getDealerId(); searchAutocompleteKaiInvoiceNumber</t>
+        </is>
+      </c>
+      <c r="I890" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J890" t="inlineStr">
+        <is>
+          <t>userAuthentication; pdiRepository</t>
+        </is>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
@@ -27174,6 +29775,31 @@
           <t>PdiController</t>
         </is>
       </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\pdi\domain\ServicePdi.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\pdi\service\ServicePdiImpl.java; src\main\java\com\i4o\dms\kubota\service\pdi\controller\PdiController.java; src\main\java\com\i4o\dms\kubota\service\pdi\repository\PdiRepository.java</t>
+        </is>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>pdiRepository.searchKaiInvoiceNumber(); userAuthentication.getDealerId(); searchAutocompleteKaiInvoiceNumber</t>
+        </is>
+      </c>
+      <c r="I891" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J891" t="inlineStr">
+        <is>
+          <t>userAuthentication; pdiRepository</t>
+        </is>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
@@ -27204,6 +29830,31 @@
           <t>PdiController</t>
         </is>
       </c>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\pdi\domain\ServicePdi.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\pdi\service\ServicePdiImpl.java; src\main\java\com\i4o\dms\kubota\service\pdi\controller\PdiController.java; src\main\java\com\i4o\dms\kubota\service\pdi\repository\PdiRepository.java</t>
+        </is>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>searchAutocompleteDmsGrnNumber; userAuthentication.getDealerId(); pdiRepository.searchDmsGrnNumber()</t>
+        </is>
+      </c>
+      <c r="I892" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J892" t="inlineStr">
+        <is>
+          <t>userAuthentication; pdiRepository</t>
+        </is>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
@@ -27234,6 +29885,31 @@
           <t>PdiController</t>
         </is>
       </c>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\pdi\domain\ServicePdi.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\pdi\service\ServicePdiImpl.java; src\main\java\com\i4o\dms\kubota\service\pdi\controller\PdiController.java; src\main\java\com\i4o\dms\kubota\service\pdi\repository\PdiRepository.java</t>
+        </is>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); pdiSearch; userAuthentication.getDealerEmployeeId(); userAuthentication.getUsername(); userAuthentication.getManagementAccess(); pdiRepository.pdiSearch(); userAuthentication.getKubotaEmployeeId()</t>
+        </is>
+      </c>
+      <c r="I893" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J893" t="inlineStr">
+        <is>
+          <t>userAuthentication; pdiRepository</t>
+        </is>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
@@ -27264,6 +29940,31 @@
           <t>PdiController</t>
         </is>
       </c>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\pdi\controller\PdiController.java; src\main\java\com\i4o\dms\kubota\service\pdi\domain\ServicePdi.java; src\main\java\com\i4o\dms\kubota\service\pdi\repository\PdiRepository.java; src\main\java\com\i4o\dms\kubota\service\pdi\service\ServicePdiImpl.java</t>
+        </is>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>pdiRepository.pdiViewGetCheckpointListByPdiId(); pdiRepository.pdiViewGetHeaderData(); getPdiById</t>
+        </is>
+      </c>
+      <c r="I894" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J894" t="inlineStr">
+        <is>
+          <t>pdiRepository</t>
+        </is>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
@@ -27294,6 +29995,31 @@
           <t>PscController</t>
         </is>
       </c>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\psc\service\ServicePscImpl.java; src\main\java\com\i4o\dms\kubota\service\psc\controller\PscController.java</t>
+        </is>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>savePsc; servicePscImpl.savePsc()</t>
+        </is>
+      </c>
+      <c r="I895" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J895" t="inlineStr">
+        <is>
+          <t>servicePscImpl</t>
+        </is>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
@@ -27324,6 +30050,31 @@
           <t>PscController</t>
         </is>
       </c>
+      <c r="G896" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\psc\controller\PscController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\psc\service\ServicePscImpl.java; src\main\java\com\i4o\dms\kubota\service\psc\repository\PscRepository.java; src\main\java\com\i4o\dms\kubota\service\psc\domain\ServicePsc.java</t>
+        </is>
+      </c>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>userAuthentication.getBranchId(); pscRepository.getAutoCompleteChassisNumber(); autoCompleteChassisNumber</t>
+        </is>
+      </c>
+      <c r="I896" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J896" t="inlineStr">
+        <is>
+          <t>pscRepository; userAuthentication</t>
+        </is>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
@@ -27354,6 +30105,31 @@
           <t>PscController</t>
         </is>
       </c>
+      <c r="G897" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\psc\service\ServicePscImpl.java; src\main\java\com\i4o\dms\kubota\service\psc\domain\ServicePsc.java; src\main\java\com\i4o\dms\kubota\service\psc\repository\PscRepository.java; src\main\java\com\i4o\dms\kubota\service\psc\controller\PscController.java</t>
+        </is>
+      </c>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>pscRepository.getDetailsByChassisNo(); autoCompletePscNo</t>
+        </is>
+      </c>
+      <c r="I897" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J897" t="inlineStr">
+        <is>
+          <t>pscRepository</t>
+        </is>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
@@ -27384,6 +30160,31 @@
           <t>PscController</t>
         </is>
       </c>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\psc\controller\PscController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\psc\service\ServicePscImpl.java; src\main\java\com\i4o\dms\kubota\service\psc\repository\PscRepository.java; src\main\java\com\i4o\dms\kubota\service\psc\domain\ServicePsc.java</t>
+        </is>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>pscRepository.getPscNoContaining(); userAuthentication.getUsername(); autoCompletePscNo</t>
+        </is>
+      </c>
+      <c r="I898" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J898" t="inlineStr">
+        <is>
+          <t>pscRepository; userAuthentication</t>
+        </is>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
@@ -27444,6 +30245,31 @@
           <t>PscController</t>
         </is>
       </c>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\psc\service\ServicePscImpl.java; src\main\java\com\i4o\dms\kubota\service\psc\domain\ServicePsc.java; src\main\java\com\i4o\dms\kubota\service\psc\repository\PscRepository.java; src\main\java\com\i4o\dms\kubota\service\psc\controller\PscController.java</t>
+        </is>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>pscRepository.pscViewGetHeaderData(); pscRepository.pscViewGetCheckpointListById(); getPscById</t>
+        </is>
+      </c>
+      <c r="I900" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J900" t="inlineStr">
+        <is>
+          <t>pscRepository</t>
+        </is>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
@@ -27474,6 +30300,31 @@
           <t>PscController</t>
         </is>
       </c>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\psc\controller\PscController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\service\psc\service\ServicePscImpl.java; src\main\java\com\i4o\dms\kubota\service\psc\repository\PscRepository.java; src\main\java\com\i4o\dms\kubota\service\psc\domain\ServicePsc.java</t>
+        </is>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); autoCompleteChassisNumberForSearch; pscRepository.getAutoCompleteChassisNumberForSearch()</t>
+        </is>
+      </c>
+      <c r="I901" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J901" t="inlineStr">
+        <is>
+          <t>pscRepository; userAuthentication</t>
+        </is>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
@@ -28314,6 +31165,23 @@
           <t>SPBranchTransferIndentController</t>
         </is>
       </c>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\inventorymanagement\branchtransfer\branchtransferindent\controller\SPBranchTransferIndentController.java</t>
+        </is>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>uploadExcel</t>
+        </is>
+      </c>
+      <c r="I929" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
     </row>
     <row r="930">
       <c r="A930" t="n">
@@ -29184,6 +32052,31 @@
           <t>BinToBinTransferController</t>
         </is>
       </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\inventorymanagement\btbt\controller\BinToBinTransferController.java; src\main\java\com\i4o\dms\kubota\utils\excelmanager\util\ExcelImportManager.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>uploadExcel; excelImportManager.getXLSHeaders(); btbtDTLRepository.uploadExcelBinTransfer(); excelImportManager.checkXLSValidity(); userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J958" t="inlineStr">
+        <is>
+          <t>userAuthentication; excelImportManager</t>
+        </is>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
@@ -29814,6 +32707,31 @@
           <t>SparesInvoiceController</t>
         </is>
       </c>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\invoice\controller\SparesInvoiceController.java; src\main\java\com\i4o\dms\kubota\spares\invoice\repository\SparesInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>userAuthentication.getBranchId(); sparesInvoiceRepo.getSaleOrderInfo(); getSaleOrderDetails</t>
+        </is>
+      </c>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J979" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparesInvoiceRepo</t>
+        </is>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
@@ -29844,6 +32762,31 @@
           <t>SparesInvoiceController</t>
         </is>
       </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\invoice\controller\SparesInvoiceController.java; src\main\java\com\i4o\dms\kubota\spares\invoice\repository\SparesInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>getSaleOrderAutoComplete; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I980" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J980" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparesInvoiceRepo</t>
+        </is>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
@@ -29874,6 +32817,31 @@
           <t>SparesInvoiceController</t>
         </is>
       </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\invoice\controller\SparesInvoiceController.java; src\main\java\com\i4o\dms\kubota\spares\invoice\repository\SparesInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>saveInvoice; sparesInvoiceRepo.updateInvoiceFlagJobCard(); sparesInvoiceRepo.updateInvoiceFlagWCR(); userAuthentication.getLoginId(); sparesInvoiceRepo.spareInvoiceSave(); sparesInvoiceRepo.save(); userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J981" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparesInvoiceRepo</t>
+        </is>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
@@ -29904,6 +32872,31 @@
           <t>SparesInvoiceController</t>
         </is>
       </c>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\invoice\controller\SparesInvoiceController.java; src\main\java\com\i4o\dms\kubota\spares\invoice\repository\SparesInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); userAuthentication.getDealerEmployeeId(); searchSpareInvoice; userAuthentication.getUsername(); sparesInvoiceRepo.searchSaleInvoice()</t>
+        </is>
+      </c>
+      <c r="I982" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J982" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparesInvoiceRepo</t>
+        </is>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
@@ -29934,6 +32927,31 @@
           <t>SparesInvoiceController</t>
         </is>
       </c>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\invoice\controller\SparesInvoiceController.java; src\main\java\com\i4o\dms\kubota\spares\invoice\repository\SparesInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>sparesInvoiceRepo.getSparesInvoiceViewHeaderData(); sparesInvoiceRepo.getSparesInvoiceViewSalesOrderDetails(); searchSpareInvoice; sparesInvoiceRepo.getSparesInvoiceViewLabourDetails(); sparesInvoiceRepo.getSparesInvoiceViewOutsideChargeDetails(); sparesInvoiceRepo.getSparesInvoiceViewPartDetails(); userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I983" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J983" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparesInvoiceRepo</t>
+        </is>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
@@ -29964,6 +32982,31 @@
           <t>SparesInvoiceController</t>
         </is>
       </c>
+      <c r="G984" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\invoice\controller\SparesInvoiceController.java; src\main\java\com\i4o\dms\kubota\spares\invoice\repository\SparesInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>sparesInvoiceRepo.updateInvoiceFlagJobCard(); sparesInvoiceRepo.updateInvoiceFlagWCR(); sparesInvoiceRepo.cancelInvoice(); cancelInvoice; userAuthentication.getLoginId(); sparesInvoiceRepo.spareInvoiceSave(); userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J984" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparesInvoiceRepo</t>
+        </is>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
@@ -29994,6 +33037,31 @@
           <t>SparesInvoiceController</t>
         </is>
       </c>
+      <c r="G985" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\invoice\controller\SparesInvoiceController.java; src\main\java\com\i4o\dms\kubota\spares\invoice\repository\SparesInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>getSparesInvoiceNumberAutocomplete; sparesInvoiceRepo.getSpareInvoiceNumberAutocomplete(); userAuthentication.getUsername()</t>
+        </is>
+      </c>
+      <c r="I985" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J985" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparesInvoiceRepo</t>
+        </is>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
@@ -30024,6 +33092,31 @@
           <t>SparesInvoiceController</t>
         </is>
       </c>
+      <c r="G986" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\invoice\controller\SparesInvoiceController.java; src\main\java\com\i4o\dms\kubota\spares\invoice\repository\SparesInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>getJobCardDeatils; sparesInvoiceRepo.getSpareInvoiceJobCardDetails(); userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I986" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J986" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparesInvoiceRepo</t>
+        </is>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
@@ -30054,6 +33147,31 @@
           <t>SparesInvoiceController</t>
         </is>
       </c>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\invoice\controller\SparesInvoiceController.java; src\main\java\com\i4o\dms\kubota\spares\invoice\repository\SparesInvoiceRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>sparesInvoiceRepo.getSpareInvoiceWcrDetails(); getWcrDetails; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I987" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J987" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparesInvoiceRepo</t>
+        </is>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
@@ -31104,6 +34222,31 @@
           <t>PickListController</t>
         </is>
       </c>
+      <c r="G1022" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\picklist\repository\PickListRepository.java; src\main\java\com\i4o\dms\kubota\spares\picklist\controller\PickListController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>pickListRepository.getPickLineItemDetails(); viewPicklist; pickListRepository.getPickHeaderDetails(); userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I1022" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1022" t="inlineStr">
+        <is>
+          <t>userAuthentication; pickListRepository</t>
+        </is>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
@@ -31134,6 +34277,31 @@
           <t>PickListController</t>
         </is>
       </c>
+      <c r="G1023" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\picklist\repository\PicklistReturnRepository.java; src\main\java\com\i4o\dms\kubota\spares\picklist\repository\PickListRepository.java; src\main\java\com\i4o\dms\kubota\spares\stock\repository\SpareStockStoreBinDetailRepository.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\spares\picklist\controller\PickListController.java; src\main\java\com\i4o\dms\kubota\spares\picklist\domain\PickListReturn.java; src\main\java\com\i4o\dms\kubota\spares\stock\domain\SpareStockStoreBinDetail.java</t>
+        </is>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>stockStoreBinDetailRepository.save(); pickListRepository.updateSaleOrderStatus(); picklistReturnRepo.save(); userAuthentication.getLoginId(); pickListRepository.save(); stockStoreBinDetailRepository.getOne(); pickListRepository.updateStockDetails(); savePicklist; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I1023" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1023" t="inlineStr">
+        <is>
+          <t>userAuthentication; stockStoreBinDetailRepository; pickListRepository; picklistReturnRepo</t>
+        </is>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
@@ -31164,6 +34332,31 @@
           <t>PickListController</t>
         </is>
       </c>
+      <c r="G1024" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\picklist\repository\PickListRepository.java; src\main\java\com\i4o\dms\kubota\spares\picklist\controller\PickListController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>pickListRepository.getPickListCustomerOrderNoAuto(); getCustomerOrderNoAutocomplete; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I1024" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1024" t="inlineStr">
+        <is>
+          <t>userAuthentication; pickListRepository</t>
+        </is>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
@@ -31194,6 +34387,31 @@
           <t>PickListController</t>
         </is>
       </c>
+      <c r="G1025" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\picklist\repository\PickListRepository.java; src\main\java\com\i4o\dms\kubota\spares\picklist\controller\PickListController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>getCustomerDetails; pickListRepository.getSalesOrderCustomerDetails(); pickListRepository.getSalesOrderItemDetails(); userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I1025" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1025" t="inlineStr">
+        <is>
+          <t>userAuthentication; pickListRepository</t>
+        </is>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
@@ -31224,6 +34442,31 @@
           <t>PickListController</t>
         </is>
       </c>
+      <c r="G1026" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\picklist\repository\PickListRepository.java; src\main\java\com\i4o\dms\kubota\spares\picklist\controller\PickListController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1026" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); getSalesOrderAutocomplete; pickListRepository.getSalesOrderAutocomplete()</t>
+        </is>
+      </c>
+      <c r="I1026" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1026" t="inlineStr">
+        <is>
+          <t>userAuthentication; pickListRepository</t>
+        </is>
+      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
@@ -31254,6 +34497,31 @@
           <t>PickListController</t>
         </is>
       </c>
+      <c r="G1027" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\picklist\repository\PickListRepository.java; src\main\java\com\i4o\dms\kubota\spares\picklist\controller\PickListController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); userAuthentication.getDealerEmployeeId(); userAuthentication.getUsername(); search; pickListRepository.searchPickList()</t>
+        </is>
+      </c>
+      <c r="I1027" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1027" t="inlineStr">
+        <is>
+          <t>userAuthentication; pickListRepository</t>
+        </is>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
@@ -32184,6 +35452,31 @@
           <t>SpPartDiscrepancyClaimController</t>
         </is>
       </c>
+      <c r="G1058" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\discrepancyClaimMmrRequest\service\SpPartDiscrepancyClaimService.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\discrepancyClaimMmrRequest\controller\SpPartDiscrepancyClaimController.java</t>
+        </is>
+      </c>
+      <c r="H1058" t="inlineStr">
+        <is>
+          <t>testing; storageService.deleteExistingFile(); storageService.store()</t>
+        </is>
+      </c>
+      <c r="I1058" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1058" t="inlineStr">
+        <is>
+          <t>storageService</t>
+        </is>
+      </c>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
@@ -33054,6 +36347,23 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1087" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java</t>
+        </is>
+      </c>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>downloadTemplate</t>
+        </is>
+      </c>
+      <c r="I1087" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr"/>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
@@ -33084,6 +36394,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1088" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\repository\SparePurchaseOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1088" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); getItemNumberAutoComplete</t>
+        </is>
+      </c>
+      <c r="I1088" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1088" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparePurchaseOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
@@ -33114,6 +36449,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1089" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\repository\SparePurchaseOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1089" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); getItemNumberSearchAutoComplete</t>
+        </is>
+      </c>
+      <c r="I1089" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1089" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparePurchaseOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
@@ -33144,6 +36504,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1090" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\repository\SparePurchaseOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1090" t="inlineStr">
+        <is>
+          <t>getItemDetailsByItemId; userAuthentication.getDealerId()</t>
+        </is>
+      </c>
+      <c r="I1090" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1090" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparePurchaseOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
@@ -33174,6 +36559,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1091" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\repository\SparePurchaseOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1091" t="inlineStr">
+        <is>
+          <t>sparePurchaseOrderRepository.getDealerOutStanding(); userAuthentication.getDealerId(); getDealerOutStandingDetails</t>
+        </is>
+      </c>
+      <c r="I1091" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1091" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparePurchaseOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
@@ -33204,6 +36614,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1092" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\repository\SparePurchaseOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1092" t="inlineStr">
+        <is>
+          <t>getPurchaseOrderNumberAutoComplete; userAuthentication.getUsername(); userAuthentication.getDealerId()</t>
+        </is>
+      </c>
+      <c r="I1092" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1092" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparePurchaseOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
@@ -33234,6 +36669,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1093" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1093" t="inlineStr">
+        <is>
+          <t>sparesPurchaseOrderService.saveSparePurchaseOrder(); saveSparePurchaseOrder; userAuthentication.getLoginId()</t>
+        </is>
+      </c>
+      <c r="I1093" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1093" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparesPurchaseOrderService</t>
+        </is>
+      </c>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
@@ -33324,6 +36784,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\repository\SparePurchaseOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1096" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerEmployeeId(); userAuthentication.getUsername(); searchPurchaseOrder; sparePurchaseOrderRepository.searchSparePurchaseOrder(); userAuthentication.getManagementAccess(); userAuthentication.getKubotaEmployeeId()</t>
+        </is>
+      </c>
+      <c r="I1096" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1096" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparePurchaseOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
@@ -33414,6 +36899,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1099" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\repository\SparePurchaseOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java</t>
+        </is>
+      </c>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>getPoById1; sparePurchaseOrderRepository.getOne()</t>
+        </is>
+      </c>
+      <c r="I1099" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1099" t="inlineStr">
+        <is>
+          <t>sparePurchaseOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
@@ -33444,6 +36954,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1100" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java</t>
+        </is>
+      </c>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>sparesPurchaseOrderService.getViewDto(); getPoById</t>
+        </is>
+      </c>
+      <c r="I1100" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1100" t="inlineStr">
+        <is>
+          <t>sparesPurchaseOrderService</t>
+        </is>
+      </c>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
@@ -33474,6 +37009,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1101" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\repository\SparePurchaseOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java</t>
+        </is>
+      </c>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>getOrderTypeBySupplierType; sparePurchaseOrderRepository.getorderTypeBySupplierType()</t>
+        </is>
+      </c>
+      <c r="I1101" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1101" t="inlineStr">
+        <is>
+          <t>sparePurchaseOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
@@ -33504,6 +37064,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1102" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\repository\SparePurchaseOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java</t>
+        </is>
+      </c>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>getSupplierTypeDropdown; sparePurchaseOrderRepository.getSupplierTypeDropdown()</t>
+        </is>
+      </c>
+      <c r="I1102" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1102" t="inlineStr">
+        <is>
+          <t>sparePurchaseOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
@@ -33534,6 +37119,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1103" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\repository\SparePurchaseOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); sparePurchaseOrderRepository.getDealerCodeAutocomplete(); getDealerCodeAutocomplete</t>
+        </is>
+      </c>
+      <c r="I1103" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1103" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparePurchaseOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
@@ -33564,6 +37174,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1104" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\repository\SparePurchaseOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); sparePurchaseOrderRepository.getPoPartItemInfoByJobCardNo(); getItemDetailsByJobCardId</t>
+        </is>
+      </c>
+      <c r="I1104" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1104" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparePurchaseOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
@@ -33594,6 +37229,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1105" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\repository\SparePurchaseOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); getJobCardAutocomplete; sparePurchaseOrderRepository.getJobCardNoAutocomplete()</t>
+        </is>
+      </c>
+      <c r="I1105" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1105" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparePurchaseOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
@@ -33624,6 +37284,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1106" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\repository\SparePurchaseOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java</t>
+        </is>
+      </c>
+      <c r="H1106" t="inlineStr">
+        <is>
+          <t>sparePurchaseOrderRepository.getTcsList(); tcsPercList</t>
+        </is>
+      </c>
+      <c r="I1106" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1106" t="inlineStr">
+        <is>
+          <t>sparePurchaseOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
@@ -33654,6 +37339,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1107" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java</t>
+        </is>
+      </c>
+      <c r="H1107" t="inlineStr">
+        <is>
+          <t>uploadExcel; sparesPurchaseOrderService.uploadExcel()</t>
+        </is>
+      </c>
+      <c r="I1107" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1107" t="inlineStr">
+        <is>
+          <t>sparesPurchaseOrderService</t>
+        </is>
+      </c>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
@@ -33684,6 +37394,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1108" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\repository\SparePurchaseOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1108" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); autoGetOPSnumber</t>
+        </is>
+      </c>
+      <c r="I1108" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1108" t="inlineStr">
+        <is>
+          <t>userAuthentication; sparePurchaseOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
@@ -33714,6 +37449,31 @@
           <t>SparePurchaseOrderController</t>
         </is>
       </c>
+      <c r="G1109" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\service\SparesPurchaseOrderService.java; src\main\java\com\i4o\dms\kubota\spares\purchase\sparepurchaseorder\controller\SparePurchaseOrderController.java</t>
+        </is>
+      </c>
+      <c r="H1109" t="inlineStr">
+        <is>
+          <t>getOPSitemsDeatail; sparesPurchaseOrderService.getOPSitemsDeatail()</t>
+        </is>
+      </c>
+      <c r="I1109" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1109" t="inlineStr">
+        <is>
+          <t>sparesPurchaseOrderService</t>
+        </is>
+      </c>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
@@ -33744,6 +37504,31 @@
           <t>TransitReportController</t>
         </is>
       </c>
+      <c r="G1110" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\grn\repository\SparePartGrnRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\grn\controller\SparePartGrnController.java; src\main\java\com\i4o\dms\kubota\spares\purchase\transitreport\controller\TransitReportController.java</t>
+        </is>
+      </c>
+      <c r="H1110" t="inlineStr">
+        <is>
+          <t>sparePartGrnRepository.getTransitReportItems()</t>
+        </is>
+      </c>
+      <c r="I1110" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1110" t="inlineStr">
+        <is>
+          <t>sparePartGrnRepository</t>
+        </is>
+      </c>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
@@ -33774,6 +37559,31 @@
           <t>TransitReportController</t>
         </is>
       </c>
+      <c r="G1111" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\purchase\grn\repository\SparePartGrnRepository.java; src\main\java\com\i4o\dms\kubota\spares\purchase\grn\controller\SparePartGrnController.java; src\main\java\com\i4o\dms\kubota\spares\purchase\transitreport\controller\TransitReportController.java</t>
+        </is>
+      </c>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>sparePartGrnRepository.getTransitReportItems()</t>
+        </is>
+      </c>
+      <c r="I1111" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1111" t="inlineStr">
+        <is>
+          <t>sparePartGrnRepository</t>
+        </is>
+      </c>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
@@ -33834,6 +37644,31 @@
           <t>SpareQuotationController</t>
         </is>
       </c>
+      <c r="G1113" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\spares\quotation\controller\SpareQuotationController.java; src\main\java\com\i4o\dms\kubota\spares\quotation\repository\SpareQuotationRepository.java; src\main\java\com\i4o\dms\kubota\spares\quotation\service\SpareQuotationService.java</t>
+        </is>
+      </c>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>spareQuotationRepository.getQuotationNumberAutocomplete(); getQuotationNumberAutocomplete; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I1113" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1113" t="inlineStr">
+        <is>
+          <t>userAuthentication; spareQuotationRepository</t>
+        </is>
+      </c>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
@@ -33864,6 +37699,31 @@
           <t>SpareQuotationController</t>
         </is>
       </c>
+      <c r="G1114" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\spares\quotation\controller\SpareQuotationController.java; src\main\java\com\i4o\dms\kubota\spares\quotation\repository\SpareQuotationRepository.java; src\main\java\com\i4o\dms\kubota\spares\quotation\service\SpareQuotationService.java</t>
+        </is>
+      </c>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>spareQuotationRepository.getQuotationSearchCount(); userAuthentication.getDealerId(); userAuthentication.getDealerEmployeeId(); userAuthentication.getUsername(); userAuthentication.getManagementAccess(); getQuotationSearch; spareQuotationRepository.getQuotationSearch(); userAuthentication.getKubotaEmployeeId()</t>
+        </is>
+      </c>
+      <c r="I1114" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1114" t="inlineStr">
+        <is>
+          <t>userAuthentication; spareQuotationRepository</t>
+        </is>
+      </c>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
@@ -33894,6 +37754,31 @@
           <t>SpareQuotationController</t>
         </is>
       </c>
+      <c r="G1115" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\spares\quotation\controller\SpareQuotationController.java; src\main\java\com\i4o\dms\kubota\spares\quotation\repository\SpareQuotationRepository.java; src\main\java\com\i4o\dms\kubota\spares\quotation\service\SpareQuotationService.java</t>
+        </is>
+      </c>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); spareQuotationRepository.getQuotationViewHeaderDetails(); spareQuotationRepository.getQuotationViewPartDetails(); getQuotationById; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I1115" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1115" t="inlineStr">
+        <is>
+          <t>userAuthentication; spareQuotationRepository</t>
+        </is>
+      </c>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
@@ -33924,6 +37809,31 @@
           <t>SpareQuotationController</t>
         </is>
       </c>
+      <c r="G1116" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\spares\quotation\controller\SpareQuotationController.java; src\main\java\com\i4o\dms\kubota\spares\quotation\repository\SpareQuotationRepository.java; src\main\java\com\i4o\dms\kubota\spares\quotation\service\SpareQuotationService.java</t>
+        </is>
+      </c>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>spareQuotationRepository.getQuotationViewPartDetailsForSalesOrder(); spareQuotationRepository.getQuotationViewHeaderDetails(); userAuthentication.getBranchId(); getQuotationByIdForSalesOrder</t>
+        </is>
+      </c>
+      <c r="I1116" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1116" t="inlineStr">
+        <is>
+          <t>userAuthentication; spareQuotationRepository</t>
+        </is>
+      </c>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
@@ -33954,6 +37864,31 @@
           <t>SpareQuotationController</t>
         </is>
       </c>
+      <c r="G1117" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\spares\quotation\controller\SpareQuotationController.java; src\main\java\com\i4o\dms\kubota\spares\quotation\repository\SpareQuotationRepository.java; src\main\java\com\i4o\dms\kubota\spares\quotation\service\SpareQuotationService.java</t>
+        </is>
+      </c>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>spareQuotationRepository.getQuotationCustomerNameAutocomplete(); getCustomerNameAutocomplete; userAuthentication.getUsername(); userAuthentication.getDealerId()</t>
+        </is>
+      </c>
+      <c r="I1117" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1117" t="inlineStr">
+        <is>
+          <t>userAuthentication; spareQuotationRepository</t>
+        </is>
+      </c>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
@@ -33984,6 +37919,31 @@
           <t>SpareQuotationController</t>
         </is>
       </c>
+      <c r="G1118" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\quotation\controller\SpareQuotationController.java; src\main\java\com\i4o\dms\kubota\spares\quotation\service\SpareQuotationService.java</t>
+        </is>
+      </c>
+      <c r="H1118" t="inlineStr">
+        <is>
+          <t>uploadExcel; spareQuotationService.uploadExcel()</t>
+        </is>
+      </c>
+      <c r="I1118" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1118" t="inlineStr">
+        <is>
+          <t>spareQuotationService</t>
+        </is>
+      </c>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
@@ -34854,6 +38814,31 @@
           <t>SpareSalesOrderController</t>
         </is>
       </c>
+      <c r="G1147" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\salesorder\controller\SpareSalesOrderController.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\service\SpareSalesOrderService.java</t>
+        </is>
+      </c>
+      <c r="H1147" t="inlineStr">
+        <is>
+          <t>saveSpareSalesOrder; spareSalesOrderService.saveSpareSaleOrder()</t>
+        </is>
+      </c>
+      <c r="I1147" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1147" t="inlineStr">
+        <is>
+          <t>spareSalesOrderService</t>
+        </is>
+      </c>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
@@ -34884,6 +38869,31 @@
           <t>SpareSalesOrderController</t>
         </is>
       </c>
+      <c r="G1148" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\salesorder\controller\SpareSalesOrderController.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\repository\SpareSalesOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\service\SpareSalesOrderService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1148" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); userAuthentication.getDealerId(); getSalesOrderAutocomplete; spareSalesOrderRepository.getSpareSalesOrderAutocomplete()</t>
+        </is>
+      </c>
+      <c r="I1148" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1148" t="inlineStr">
+        <is>
+          <t>userAuthentication; spareSalesOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
@@ -34914,6 +38924,31 @@
           <t>SpareSalesOrderController</t>
         </is>
       </c>
+      <c r="G1149" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\salesorder\controller\SpareSalesOrderController.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\repository\SpareSalesOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\service\SpareSalesOrderService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1149" t="inlineStr">
+        <is>
+          <t>spareSalesOrderRepository.getQuotationNumberAutocomplete(); getQuotationNumberAutocomplete; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I1149" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1149" t="inlineStr">
+        <is>
+          <t>userAuthentication; spareSalesOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
@@ -34944,6 +38979,31 @@
           <t>SpareSalesOrderController</t>
         </is>
       </c>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\salesorder\controller\SpareSalesOrderController.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\repository\SpareSalesOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\service\SpareSalesOrderService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1150" t="inlineStr">
+        <is>
+          <t>spareSalesOrderRepository.getSpareSalesOrderCustomerNameAutocomplete(); getCustomerNameAutocomplete; userAuthentication.getUsername(); userAuthentication.getDealerId()</t>
+        </is>
+      </c>
+      <c r="I1150" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1150" t="inlineStr">
+        <is>
+          <t>userAuthentication; spareSalesOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
@@ -34974,6 +39034,31 @@
           <t>SpareSalesOrderController</t>
         </is>
       </c>
+      <c r="G1151" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\salesorder\controller\SpareSalesOrderController.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\repository\SpareSalesOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\service\SpareSalesOrderService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1151" t="inlineStr">
+        <is>
+          <t>userAuthentication.getBranchId(); spareSalesOrderRepository.getItemDetailsByItemNumber(); getItemDetailsByItemNumber</t>
+        </is>
+      </c>
+      <c r="I1151" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1151" t="inlineStr">
+        <is>
+          <t>userAuthentication; spareSalesOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
@@ -35034,6 +39119,31 @@
           <t>SpareSalesOrderController</t>
         </is>
       </c>
+      <c r="G1153" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\salesorder\controller\SpareSalesOrderController.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\repository\SpareSalesOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\service\SpareSalesOrderService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1153" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); userAuthentication.getDealerEmployeeId(); spareSalesOrderRepository.spareSalesOrderSearch(); userAuthentication.getUsername(); search; userAuthentication.getManagementAccess(); userAuthentication.getKubotaEmployeeId()</t>
+        </is>
+      </c>
+      <c r="I1153" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1153" t="inlineStr">
+        <is>
+          <t>userAuthentication; spareSalesOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
@@ -35064,6 +39174,31 @@
           <t>SpareSalesOrderController</t>
         </is>
       </c>
+      <c r="G1154" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\salesorder\controller\SpareSalesOrderController.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\repository\SpareSalesOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\service\SpareSalesOrderService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1154" t="inlineStr">
+        <is>
+          <t>spareSalesOrderRepository.getSpareSalesOrderHeaderDetails(); spareSalesOrderRepository.getSpareSalesOrderPartDetails(); getSalesOrderById; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I1154" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1154" t="inlineStr">
+        <is>
+          <t>userAuthentication; spareSalesOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
@@ -35094,6 +39229,31 @@
           <t>SpareSalesOrderController</t>
         </is>
       </c>
+      <c r="G1155" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\salesorder\controller\SpareSalesOrderController.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\repository\SpareSalesOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\service\SpareSalesOrderService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1155" t="inlineStr">
+        <is>
+          <t>spareSalesOrderRepository.getRetailerAndMechanicAutocomplete(); getRetailerOrMechanicAutocomplete; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I1155" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1155" t="inlineStr">
+        <is>
+          <t>userAuthentication; spareSalesOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
@@ -35124,6 +39284,31 @@
           <t>SpareSalesOrderController</t>
         </is>
       </c>
+      <c r="G1156" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\salesorder\controller\SpareSalesOrderController.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\repository\SpareSalesOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\service\SpareSalesOrderService.java</t>
+        </is>
+      </c>
+      <c r="H1156" t="inlineStr">
+        <is>
+          <t>getRetailerOrMechanicDetails; spareSalesOrderRepository.getRetailerAndMechanicDetails()</t>
+        </is>
+      </c>
+      <c r="I1156" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1156" t="inlineStr">
+        <is>
+          <t>spareSalesOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
@@ -35154,6 +39339,31 @@
           <t>SpareSalesOrderController</t>
         </is>
       </c>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\salesorder\controller\SpareSalesOrderController.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\repository\SpareSalesOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\service\SpareSalesOrderService.java</t>
+        </is>
+      </c>
+      <c r="H1157" t="inlineStr">
+        <is>
+          <t>spareSalesOrderRepository.getDealerDetails(); getDealerDetails</t>
+        </is>
+      </c>
+      <c r="I1157" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1157" t="inlineStr">
+        <is>
+          <t>spareSalesOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
@@ -35184,6 +39394,31 @@
           <t>SpareSalesOrderController</t>
         </is>
       </c>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\salesorder\controller\SpareSalesOrderController.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\repository\SpareSalesOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\service\SpareSalesOrderService.java</t>
+        </is>
+      </c>
+      <c r="H1158" t="inlineStr">
+        <is>
+          <t>spareSalesOrderRepository.getDealerCodeAutocomplete(); getDealerDetails</t>
+        </is>
+      </c>
+      <c r="I1158" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1158" t="inlineStr">
+        <is>
+          <t>spareSalesOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
@@ -35214,6 +39449,31 @@
           <t>SpareSalesOrderController</t>
         </is>
       </c>
+      <c r="G1159" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\salesorder\controller\SpareSalesOrderController.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\repository\SpareSalesOrderRepository.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\service\SpareSalesOrderService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java</t>
+        </is>
+      </c>
+      <c r="H1159" t="inlineStr">
+        <is>
+          <t>deletePart; userAuthentication.getDealerId(); spareSalesOrderRepository.deletePart()</t>
+        </is>
+      </c>
+      <c r="I1159" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1159" t="inlineStr">
+        <is>
+          <t>userAuthentication; spareSalesOrderRepository</t>
+        </is>
+      </c>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
@@ -35244,6 +39504,31 @@
           <t>SpareSalesOrderController</t>
         </is>
       </c>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\spares\salesorder\controller\SpareSalesOrderController.java; src\main\java\com\i4o\dms\kubota\spares\salesorder\service\SpareSalesOrderService.java</t>
+        </is>
+      </c>
+      <c r="H1160" t="inlineStr">
+        <is>
+          <t>spareSalesOrderService.customerUploadExcel(); customerUploadExcel</t>
+        </is>
+      </c>
+      <c r="I1160" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1160" t="inlineStr">
+        <is>
+          <t>spareSalesOrderService</t>
+        </is>
+      </c>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
@@ -36354,6 +40639,31 @@
           <t>WarrantyGoodWillController</t>
         </is>
       </c>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\goodwill\controller\WarrantyGoodWillController.java; src\main\java\com\i4o\dms\kubota\warranty\goodwill\service\GoodwillService.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\warranty\goodwill\repository\WarrantyGoodwillRepo.java</t>
+        </is>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); searchAutoCompleteGoodwillNo; warrantyGoodwillRepo.searchGoodwillNo()</t>
+        </is>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1197" t="inlineStr">
+        <is>
+          <t>userAuthentication; warrantyGoodwillRepo</t>
+        </is>
+      </c>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" t="n">
@@ -36384,6 +40694,31 @@
           <t>WarrantyHotlineReportController</t>
         </is>
       </c>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\service\WarrantyHotlineReportService.java; src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\controller\WarrantyHotlineReportController.java</t>
+        </is>
+      </c>
+      <c r="H1198" t="inlineStr">
+        <is>
+          <t>submitHotlineReport; hotlineReportService.submitHotlineReport()</t>
+        </is>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1198" t="inlineStr">
+        <is>
+          <t>hotlineReportService</t>
+        </is>
+      </c>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" t="n">
@@ -36414,6 +40749,31 @@
           <t>WarrantyHotlineReportController</t>
         </is>
       </c>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\service\WarrantyHotlineReportService.java; src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\controller\WarrantyHotlineReportController.java</t>
+        </is>
+      </c>
+      <c r="H1199" t="inlineStr">
+        <is>
+          <t>hotlineReportService.findHotlineByHtlrNo(); viewHotlineReport</t>
+        </is>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1199" t="inlineStr">
+        <is>
+          <t>hotlineReportService</t>
+        </is>
+      </c>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
@@ -36444,6 +40804,31 @@
           <t>WarrantyHotlineReportController</t>
         </is>
       </c>
+      <c r="G1200" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\service\WarrantyHotlineReportService.java; src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\controller\WarrantyHotlineReportController.java</t>
+        </is>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>searchHotlineNo; hotlineReportService.searchHotlineNo()</t>
+        </is>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1200" t="inlineStr">
+        <is>
+          <t>hotlineReportService</t>
+        </is>
+      </c>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
@@ -36474,6 +40859,31 @@
           <t>WarrantyHotlineReportController</t>
         </is>
       </c>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\service\WarrantyHotlineReportService.java; src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\controller\WarrantyHotlineReportController.java</t>
+        </is>
+      </c>
+      <c r="H1201" t="inlineStr">
+        <is>
+          <t>hotlineReportService.dealerDepoList(); dealerDepoList</t>
+        </is>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1201" t="inlineStr">
+        <is>
+          <t>hotlineReportService</t>
+        </is>
+      </c>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1202">
       <c r="A1202" t="n">
@@ -36504,6 +40914,31 @@
           <t>WarrantyHotlineReportController</t>
         </is>
       </c>
+      <c r="G1202" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\service\WarrantyHotlineReportService.java; src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\controller\WarrantyHotlineReportController.java</t>
+        </is>
+      </c>
+      <c r="H1202" t="inlineStr">
+        <is>
+          <t>getFailureCode; hotlineReportService.getFailureCode()</t>
+        </is>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1202" t="inlineStr">
+        <is>
+          <t>hotlineReportService</t>
+        </is>
+      </c>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" t="n">
@@ -36534,6 +40969,31 @@
           <t>WarrantyHotlineReportController</t>
         </is>
       </c>
+      <c r="G1203" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\service\WarrantyHotlineReportService.java; src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\controller\WarrantyHotlineReportController.java</t>
+        </is>
+      </c>
+      <c r="H1203" t="inlineStr">
+        <is>
+          <t>getHotlineStatus; hotlineReportService.getHotlineStatus()</t>
+        </is>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1203" t="inlineStr">
+        <is>
+          <t>hotlineReportService</t>
+        </is>
+      </c>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
@@ -36564,6 +41024,31 @@
           <t>WarrantyHotlineReportController</t>
         </is>
       </c>
+      <c r="G1204" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\service\WarrantyHotlineReportService.java; src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\controller\WarrantyHotlineReportController.java</t>
+        </is>
+      </c>
+      <c r="H1204" t="inlineStr">
+        <is>
+          <t>hotlineReportService.getHotlinePlant(); getHotlinePlant</t>
+        </is>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1204" t="inlineStr">
+        <is>
+          <t>hotlineReportService</t>
+        </is>
+      </c>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" t="n">
@@ -36594,6 +41079,31 @@
           <t>WarrantyHotlineReportController</t>
         </is>
       </c>
+      <c r="G1205" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\service\WarrantyHotlineReportService.java; src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\controller\WarrantyHotlineReportController.java</t>
+        </is>
+      </c>
+      <c r="H1205" t="inlineStr">
+        <is>
+          <t>getHoDeparment; hotlineReportService.getHoDepartment()</t>
+        </is>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1205" t="inlineStr">
+        <is>
+          <t>hotlineReportService</t>
+        </is>
+      </c>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
@@ -36624,6 +41134,31 @@
           <t>WarrantyHotlineReportController</t>
         </is>
       </c>
+      <c r="G1206" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\service\WarrantyHotlineReportService.java; src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\controller\WarrantyHotlineReportController.java</t>
+        </is>
+      </c>
+      <c r="H1206" t="inlineStr">
+        <is>
+          <t>getChassisNo; hotlineReportService.getChassisNo()</t>
+        </is>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1206" t="inlineStr">
+        <is>
+          <t>hotlineReportService</t>
+        </is>
+      </c>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
@@ -36654,6 +41189,31 @@
           <t>WarrantyHotlineReportController</t>
         </is>
       </c>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\service\WarrantyHotlineReportService.java; src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\controller\WarrantyHotlineReportController.java</t>
+        </is>
+      </c>
+      <c r="H1207" t="inlineStr">
+        <is>
+          <t>getDeptIncharge; hotlineReportService.getDepartmentIncharge()</t>
+        </is>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1207" t="inlineStr">
+        <is>
+          <t>hotlineReportService</t>
+        </is>
+      </c>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
@@ -36684,6 +41244,31 @@
           <t>WarrantyHotlineReportController</t>
         </is>
       </c>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\service\WarrantyHotlineReportService.java; src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\controller\WarrantyHotlineReportController.java</t>
+        </is>
+      </c>
+      <c r="H1208" t="inlineStr">
+        <is>
+          <t>hotlineReportService.searchHotlineReport(); searchHotlineReport</t>
+        </is>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1208" t="inlineStr">
+        <is>
+          <t>hotlineReportService</t>
+        </is>
+      </c>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
@@ -36714,6 +41299,31 @@
           <t>WarrantyHotlineReportController</t>
         </is>
       </c>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\service\WarrantyHotlineReportService.java; src\main\java\com\i4o\dms\kubota\warranty\hotlinereport\controller\WarrantyHotlineReportController.java</t>
+        </is>
+      </c>
+      <c r="H1209" t="inlineStr">
+        <is>
+          <t>hotlineReportService.getFailureType(); getFailureType</t>
+        </is>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1209" t="inlineStr">
+        <is>
+          <t>hotlineReportService</t>
+        </is>
+      </c>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" t="n">
@@ -37464,6 +42074,31 @@
           <t>WarrantyPcrController</t>
         </is>
       </c>
+      <c r="G1234" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\jobcard\repository\ServiceJobCardRepo.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\service\WarrantyPcrService.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\controller\WarrantyPcrController.java</t>
+        </is>
+      </c>
+      <c r="H1234" t="inlineStr">
+        <is>
+          <t>warrantyPcrService.saveWarrantyPcr(); saveWarrantyPcr</t>
+        </is>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1234" t="inlineStr">
+        <is>
+          <t>warrantyPcrService</t>
+        </is>
+      </c>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
@@ -37494,6 +42129,31 @@
           <t>WarrantyPcrController</t>
         </is>
       </c>
+      <c r="G1235" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\jobcard\repository\ServiceJobCardRepo.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\repository\DealerEmployeeMasterRepo.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\repository\WarrantyPcrPhotosRepo.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\service\WarrantyPcrService.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\domain\WarrantyPcrPhotos.java; src\main\java\com\i4o\dms\kubota\masters\warranty\repository\WarrantyMtPartFailureCodeRepo.java; src\main\java\com\i4o\dms\kubota\accpac\repository\AccPacDealerMasterRepository.java; src\main\java\com\i4o\dms\kubota\accpac\domain\AccPacDealerMaster.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\spares\partrequisition\domain\SparePartRequisitionItem.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\masters\usermanagement\dealerusers\controller\DealerEmployeeMasterController.java; src\main\java\com\i4o\dms\kubota\masters\warranty\controller\WarrantyMtPartFailureCodeController.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\controller\WarrantyPcrController.java; src\main\java\com\i4o\dms\kubota\spares\partrequisition\repository\SparePartRequisitionItemRepo.java</t>
+        </is>
+      </c>
+      <c r="H1235" t="inlineStr">
+        <is>
+          <t>dealerEmployeeMasterRepo.getOne(); dealerMasterRepo.getOne(); warrantyPcrRepo.save(); saveWarrantyPcr; warrantyMtPartFailureCodeRepo.findById(); sparePartRequisitionItemRepo.getOne()</t>
+        </is>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1235" t="inlineStr">
+        <is>
+          <t>sparePartRequisitionItemRepo; warrantyMtPartFailureCodeRepo; warrantyPcrRepo; dealerMasterRepo; dealerEmployeeMasterRepo</t>
+        </is>
+      </c>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
@@ -37584,6 +42244,31 @@
           <t>WarrantyPcrController</t>
         </is>
       </c>
+      <c r="G1238" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\jobcard\repository\ServiceJobCardRepo.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\repository\WarrantyPcrPhotosRepo.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\service\WarrantyPcrService.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\domain\WarrantyPcrPhotos.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\domain\WarrantyPcrApproval.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\controller\WarrantyPcrController.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\repository\WarrantyPcrApprovalRepository.java</t>
+        </is>
+      </c>
+      <c r="H1238" t="inlineStr">
+        <is>
+          <t>warrantyPcrRepo.updatePcrStatus(); userAuthentication.getUsername(); warrantyPcrApprovalRepository.saveAll(); userAuthentication.getLoginId(); warrantyPcrApprovalRepository.getWarrantyPcrSpecialApprovalHierarchyLevel(); pcrSpecialApproval</t>
+        </is>
+      </c>
+      <c r="I1238" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1238" t="inlineStr">
+        <is>
+          <t>warrantyPcrApprovalRepository; warrantyPcrRepo; userAuthentication</t>
+        </is>
+      </c>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
@@ -38034,6 +42719,31 @@
           <t>WarrantyPcrController</t>
         </is>
       </c>
+      <c r="G1253" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\service\jobcard\repository\ServiceJobCardRepo.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\service\WarrantyPcrService.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\controller\WarrantyPcrController.java</t>
+        </is>
+      </c>
+      <c r="H1253" t="inlineStr">
+        <is>
+          <t>getPcrPendingForApproval; warrantyPcrService.getPcrPendingForApproval()</t>
+        </is>
+      </c>
+      <c r="I1253" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1253" t="inlineStr">
+        <is>
+          <t>warrantyPcrService</t>
+        </is>
+      </c>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1254">
       <c r="A1254" t="n">
@@ -38214,6 +42924,31 @@
           <t>WarrantyRetrofitmentCampaignController</t>
         </is>
       </c>
+      <c r="G1259" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\common\service\JasperPrintService.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\service\WarrantyRetrofitmentCampaignService.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\controller\WarrantyRetrofitmentCampaignController.java</t>
+        </is>
+      </c>
+      <c r="H1259" t="inlineStr">
+        <is>
+          <t>uploadExcel; warrantyRetrofitmentCampaignService.saveExcelChassisDetail()</t>
+        </is>
+      </c>
+      <c r="I1259" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1259" t="inlineStr">
+        <is>
+          <t>warrantyRetrofitmentCampaignService</t>
+        </is>
+      </c>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1260">
       <c r="A1260" t="n">
@@ -38244,6 +42979,31 @@
           <t>WarrantyRetrofitmentCampaignController</t>
         </is>
       </c>
+      <c r="G1260" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\common\service\JasperPrintService.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\service\WarrantyRetrofitmentCampaignService.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\controller\WarrantyRetrofitmentCampaignController.java</t>
+        </is>
+      </c>
+      <c r="H1260" t="inlineStr">
+        <is>
+          <t>warrantyRetrofitmentCampaignService.saveRetrofitmentCampaign(); saveRetrofitmentCampaign</t>
+        </is>
+      </c>
+      <c r="I1260" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1260" t="inlineStr">
+        <is>
+          <t>warrantyRetrofitmentCampaignService</t>
+        </is>
+      </c>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>Repository</t>
+        </is>
+      </c>
     </row>
     <row r="1261">
       <c r="A1261" t="n">
@@ -38274,6 +43034,31 @@
           <t>WarrantyRetrofitmentCampaignController</t>
         </is>
       </c>
+      <c r="G1261" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\common\service\JasperPrintService.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\repository\WarrantyRetrofitmentCampaignPhotoRepo.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\controller\WarrantyRetrofitmentCampaignController.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\service\WarrantyRetrofitmentCampaignService.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\domain\WarrantyRetrofitmentCampaignPhoto.java</t>
+        </is>
+      </c>
+      <c r="H1261" t="inlineStr">
+        <is>
+          <t>searchRetrofitmentCampaign; warrantyRetrofitmentCampaignRepo.searchWarrantyRetrofitmentCampaignCount()</t>
+        </is>
+      </c>
+      <c r="I1261" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1261" t="inlineStr">
+        <is>
+          <t>warrantyRetrofitmentCampaignRepo</t>
+        </is>
+      </c>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1262">
       <c r="A1262" t="n">
@@ -38304,6 +43089,31 @@
           <t>WarrantyRetrofitmentCampaignController</t>
         </is>
       </c>
+      <c r="G1262" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\common\service\JasperPrintService.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\repository\WarrantyRetrofitmentCampaignPhotoRepo.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\controller\WarrantyRetrofitmentCampaignController.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\service\WarrantyRetrofitmentCampaignService.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\domain\WarrantyRetrofitmentCampaignPhoto.java</t>
+        </is>
+      </c>
+      <c r="H1262" t="inlineStr">
+        <is>
+          <t>warrantyRetrofitmentCampaignRepo.findByRetrofitmentNo(); viewRetrofitmentCampaign</t>
+        </is>
+      </c>
+      <c r="I1262" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1262" t="inlineStr">
+        <is>
+          <t>warrantyRetrofitmentCampaignRepo</t>
+        </is>
+      </c>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" t="n">
@@ -38334,6 +43144,31 @@
           <t>WarrantyRetrofitmentCampaignController</t>
         </is>
       </c>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\common\service\JasperPrintService.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\repository\WarrantyRetrofitmentCampaignPhotoRepo.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\controller\WarrantyRetrofitmentCampaignController.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\service\WarrantyRetrofitmentCampaignService.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\domain\WarrantyRetrofitmentCampaignPhoto.java</t>
+        </is>
+      </c>
+      <c r="H1263" t="inlineStr">
+        <is>
+          <t>warrantyRetrofitmentCampaignRepo.searchRetrofitmentStatus(); searchRetrofitmentStatus</t>
+        </is>
+      </c>
+      <c r="I1263" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1263" t="inlineStr">
+        <is>
+          <t>warrantyRetrofitmentCampaignRepo</t>
+        </is>
+      </c>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1264">
       <c r="A1264" t="n">
@@ -38364,6 +43199,31 @@
           <t>WarrantyRetrofitmentCampaignController</t>
         </is>
       </c>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\common\service\JasperPrintService.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\repository\WarrantyRetrofitmentCampaignPhotoRepo.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\controller\WarrantyRetrofitmentCampaignController.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\service\WarrantyRetrofitmentCampaignService.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\domain\WarrantyRetrofitmentCampaignPhoto.java</t>
+        </is>
+      </c>
+      <c r="H1264" t="inlineStr">
+        <is>
+          <t>searchRetrofitmentNo; warrantyRetrofitmentCampaignRepo.searchRetrofitmentNo()</t>
+        </is>
+      </c>
+      <c r="I1264" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1264" t="inlineStr">
+        <is>
+          <t>warrantyRetrofitmentCampaignRepo</t>
+        </is>
+      </c>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1265">
       <c r="A1265" t="n">
@@ -38394,6 +43254,31 @@
           <t>WarrantyRetrofitmentCampaignController</t>
         </is>
       </c>
+      <c r="G1265" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\common\service\JasperPrintService.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\repository\WarrantyRetrofitmentCampaignPhotoRepo.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\controller\WarrantyRetrofitmentCampaignController.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\service\WarrantyRetrofitmentCampaignService.java; src\main\java\com\i4o\dms\kubota\warranty\retrofitmentcampaign\domain\WarrantyRetrofitmentCampaignPhoto.java</t>
+        </is>
+      </c>
+      <c r="H1265" t="inlineStr">
+        <is>
+          <t>warrantyRetrofitmentCampaignRepo.getAutoCompleteJobCode(); getAutoCompleteJobCode</t>
+        </is>
+      </c>
+      <c r="I1265" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1265" t="inlineStr">
+        <is>
+          <t>warrantyRetrofitmentCampaignRepo</t>
+        </is>
+      </c>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" t="n">
@@ -38454,6 +43339,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1267" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\pcr\repository\WarrantyPcrPhotosRepo.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\domain\WarrantyPcrPhotos.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1267" t="inlineStr">
+        <is>
+          <t>pcrWarrantyClaim; warrantyPcrRepo.findByPcrNoAndId(); warrantyWcrRepo.getLabourCharge(); warrantyWcrRepo.getOutSideLabourCharge(); warrantyWcrRepo.getJobCardPartWarrantyInfo(); warrantyPcrRepo.getDealerDetails()</t>
+        </is>
+      </c>
+      <c r="I1267" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1267" t="inlineStr">
+        <is>
+          <t>warrantyPcrRepo; warrantyWcrRepo</t>
+        </is>
+      </c>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1268">
       <c r="A1268" t="n">
@@ -38484,6 +43394,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1268" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\pcr\repository\WarrantyPcrPhotosRepo.java; src\main\java\com\i4o\dms\kubota\warranty\pcr\domain\WarrantyPcrPhotos.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\warranty\goodwill\controller\WarrantyGoodWillController.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\goodwill\repository\WarrantyGoodwillRepo.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1268" t="inlineStr">
+        <is>
+          <t>goodwillWarrantyClaim; warrantyWcrRepo.getLabourCharge(); warrantyWcrRepo.getOutSideLabourCharge(); warrantyWcrRepo.getJobCardPartWarrantyInfo(); warrantyPcrRepo.getDealerDetails(); warrantyGoodwillRepo.findByGoodwillNo()</t>
+        </is>
+      </c>
+      <c r="I1268" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1268" t="inlineStr">
+        <is>
+          <t>warrantyPcrRepo; warrantyWcrRepo; warrantyGoodwillRepo</t>
+        </is>
+      </c>
+      <c r="K1268" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1269">
       <c r="A1269" t="n">
@@ -38514,6 +43449,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1269" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java; src\main\java\com\i4o\dms\kubota\spares\partrequisition\domain\SparePartRequisitionItem.java; src\main\java\com\i4o\dms\kubota\spares\partrequisition\repository\SparePartRequisitionItemRepo.java</t>
+        </is>
+      </c>
+      <c r="H1269" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); saveWcr; sparePartRequisitionItemRepo.updateWarrantyClaimPartGoodwill(); sparePartRequisitionItemRepo.updateWarrantyClaimLabourGoodwill(); sparePartRequisitionItemRepo.updateWarrantyClaimLabourPcr(); sparePartRequisitionItemRepo.updateWarrantyClaimPartPcr(); userAuthentication.getLoginId(); warrantyWcrApprovalRepo.saveAll(); sparePartRequisitionItemRepo.updateWarrantyClaimOutsideChargePcr(); warrantyWcrApprovalRepo.getWarrantyWcrApprovalHierarchyLevel(); sparePartRequisitionItemRepo.updateWarrantyClaimOutsideChargeGoodwill(); warrantyWcrRepo.save(); userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I1269" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1269" t="inlineStr">
+        <is>
+          <t>userAuthentication; warrantyWcrRepo; warrantyWcrApprovalRepo; sparePartRequisitionItemRepo</t>
+        </is>
+      </c>
+      <c r="K1269" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1270">
       <c r="A1270" t="n">
@@ -38544,6 +43504,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1270" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1270" t="inlineStr">
+        <is>
+          <t>userAuthentication.getUsername(); searchWcrCreditIssued; userAuthentication.getManagementAccess(); warrantyWcrRepo.searchWcr(); userAuthentication.getKubotaEmployeeId()</t>
+        </is>
+      </c>
+      <c r="I1270" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1270" t="inlineStr">
+        <is>
+          <t>userAuthentication; warrantyWcrRepo</t>
+        </is>
+      </c>
+      <c r="K1270" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
@@ -38604,6 +43589,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1272" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1272" t="inlineStr">
+        <is>
+          <t>userAuthentication.getDealerId(); userAuthentication.getDealerEmployeeId(); userAuthentication.getUsername(); searchWcr; userAuthentication.getManagementAccess(); warrantyWcrRepo.searchWcr(); userAuthentication.getKubotaEmployeeId()</t>
+        </is>
+      </c>
+      <c r="I1272" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1272" t="inlineStr">
+        <is>
+          <t>userAuthentication; warrantyWcrRepo</t>
+        </is>
+      </c>
+      <c r="K1272" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1273">
       <c r="A1273" t="n">
@@ -38634,6 +43644,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1273" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1273" t="inlineStr">
+        <is>
+          <t>searchStatus; userAuthentication.getDealerId(); warrantyWcrRepo.searchStatus()</t>
+        </is>
+      </c>
+      <c r="I1273" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1273" t="inlineStr">
+        <is>
+          <t>userAuthentication; warrantyWcrRepo</t>
+        </is>
+      </c>
+      <c r="K1273" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1274">
       <c r="A1274" t="n">
@@ -38664,6 +43699,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1274" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1274" t="inlineStr">
+        <is>
+          <t>warrantyWcrRepo.searchWcrType(); searchWcrType</t>
+        </is>
+      </c>
+      <c r="I1274" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1274" t="inlineStr">
+        <is>
+          <t>warrantyWcrRepo</t>
+        </is>
+      </c>
+      <c r="K1274" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1275">
       <c r="A1275" t="n">
@@ -38694,6 +43754,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1275" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1275" t="inlineStr">
+        <is>
+          <t>warrantyWcrApprovalRepo.getApprovalHierDetails(); warrantyWcrRepo.findByWcrNo(); viewWarrantyWcr; userAuthentication.getUsername(); warrantyWcrRepo.getLabourCharge(); warrantyWcrRepo.getOutSideLabourCharge(); warrantyWcrRepo.getJobCardPartWarrantyInfo(); warrantyWcrRepo.getInvoiceType(); warrantyWcrRepo.getInspectionBtn()</t>
+        </is>
+      </c>
+      <c r="I1275" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1275" t="inlineStr">
+        <is>
+          <t>userAuthentication; warrantyWcrApprovalRepo; warrantyWcrRepo</t>
+        </is>
+      </c>
+      <c r="K1275" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1276">
       <c r="A1276" t="n">
@@ -38754,6 +43839,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1277" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1277" t="inlineStr">
+        <is>
+          <t>warrantyWcrRepo.wcrReport(); wcrReport; userAuthentication.getBranchId()</t>
+        </is>
+      </c>
+      <c r="I1277" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1277" t="inlineStr">
+        <is>
+          <t>userAuthentication; warrantyWcrRepo</t>
+        </is>
+      </c>
+      <c r="K1277" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1278">
       <c r="A1278" t="n">
@@ -38784,6 +43894,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1278" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1278" t="inlineStr">
+        <is>
+          <t>searchAutoCompleteWcrNo; userAuthentication.getUsername(); warrantyWcrRepo.searchWcrNo()</t>
+        </is>
+      </c>
+      <c r="I1278" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1278" t="inlineStr">
+        <is>
+          <t>userAuthentication; warrantyWcrRepo</t>
+        </is>
+      </c>
+      <c r="K1278" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" t="n">
@@ -38814,6 +43949,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1279" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1279" t="inlineStr">
+        <is>
+          <t>warrantyWcrRepo.markWcrReceived(); updateWcrAsReceived; userAuthentication.getLoginId()</t>
+        </is>
+      </c>
+      <c r="I1279" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1279" t="inlineStr">
+        <is>
+          <t>userAuthentication; warrantyWcrRepo</t>
+        </is>
+      </c>
+      <c r="K1279" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" t="n">
@@ -38874,6 +44034,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1281" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1281" t="inlineStr">
+        <is>
+          <t>invoiceUpload; warrantyWcrRepo.uploadInvoice(); storageService.store(); userAuthentication.getLoginId()</t>
+        </is>
+      </c>
+      <c r="I1281" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1281" t="inlineStr">
+        <is>
+          <t>userAuthentication; warrantyWcrRepo; storageService</t>
+        </is>
+      </c>
+      <c r="K1281" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
@@ -38904,6 +44089,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1282" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1282" t="inlineStr">
+        <is>
+          <t>kaiInvoiceUpload; storageService.store(); warrantyWcrRepo.KaiUploadInvoice(); userAuthentication.getLoginId()</t>
+        </is>
+      </c>
+      <c r="I1282" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1282" t="inlineStr">
+        <is>
+          <t>userAuthentication; warrantyWcrRepo; storageService</t>
+        </is>
+      </c>
+      <c r="K1282" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1283">
       <c r="A1283" t="n">
@@ -38934,6 +44144,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1283" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\security\service\UserAuthenticationImpl.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1283" t="inlineStr">
+        <is>
+          <t>storageService.loadAsResource(); warrantyWcrRepo.getInvoiceFileName(); userAuthentication.getLoginId(); warrantyWcrRepo.getInvoiceDetail(); warrantyWcrRepo.getFinalStatus(); warrantyWcrRepo.markAsInvoiceVerified(); invoiceVerify</t>
+        </is>
+      </c>
+      <c r="I1283" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1283" t="inlineStr">
+        <is>
+          <t>userAuthentication; warrantyWcrRepo; storageService</t>
+        </is>
+      </c>
+      <c r="K1283" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1284">
       <c r="A1284" t="n">
@@ -38964,6 +44199,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1284" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1284" t="inlineStr">
+        <is>
+          <t>invoiceDownload; storageService.loadAsResource(); warrantyWcrRepo.getInvoiceFileName()</t>
+        </is>
+      </c>
+      <c r="I1284" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1284" t="inlineStr">
+        <is>
+          <t>warrantyWcrRepo; storageService</t>
+        </is>
+      </c>
+      <c r="K1284" t="inlineStr">
+        <is>
+          <t>Repository; JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" t="n">
@@ -38994,6 +44254,31 @@
           <t>WarrantyWcrController</t>
         </is>
       </c>
+      <c r="G1285" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1285" t="inlineStr">
+        <is>
+          <t>getFinalStatus; warrantyWcrRepo.getFinalStatus()</t>
+        </is>
+      </c>
+      <c r="I1285" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1285" t="inlineStr">
+        <is>
+          <t>warrantyWcrRepo</t>
+        </is>
+      </c>
+      <c r="K1285" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
+        </is>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" t="n">
@@ -39022,6 +44307,31 @@
       <c r="F1286" t="inlineStr">
         <is>
           <t>WarrantyWcrController</t>
+        </is>
+      </c>
+      <c r="G1286" t="inlineStr">
+        <is>
+          <t>src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\domain\WarrantyWcrApproval.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\repository\WarrantyWcrApprovalRepo.java; src\main\java\com\i4o\dms\kubota\storage\StorageService.java; src\main\java\com\i4o\dms\kubota\storage\FileStorageService.java; src\main\java\com\i4o\dms\kubota\warranty\warrantyclaimrequest\controller\WarrantyWcrController.java</t>
+        </is>
+      </c>
+      <c r="H1286" t="inlineStr">
+        <is>
+          <t>warrantyWcrRepo.getInvoiceDetail(); getInvoiceDetail</t>
+        </is>
+      </c>
+      <c r="I1286" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="J1286" t="inlineStr">
+        <is>
+          <t>warrantyWcrRepo</t>
+        </is>
+      </c>
+      <c r="K1286" t="inlineStr">
+        <is>
+          <t>JPA Entity</t>
         </is>
       </c>
     </row>
